--- a/Översikt ROBERTSFORS.xlsx
+++ b/Översikt ROBERTSFORS.xlsx
@@ -575,7 +575,7 @@
         <v>45936.67924768518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>45944.63659722222</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45656</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44473.40152777778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
         <v>45967.31410879629</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>45939.69342592593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45810.42046296296</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>45848.54172453703</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>45915.55431712963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45841.36940972223</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>45937.46267361111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>45776.56769675926</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>45560</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>45504</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>45153</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>45468.58577546296</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>45848.57890046296</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>45957.44629629629</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>46038.38196759259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>46050.34460648148</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>45182</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>45785.45925925926</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>44497</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>45307</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>45687.42112268518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>45656</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>45891.53680555556</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>45908.59594907407</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>45912</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>45926</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>45835</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3512,7 +3512,7 @@
         <v>45245</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>45844.72150462963</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>45510</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>45848.63575231482</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>45856.49604166667</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>45939.71892361111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>45873.65006944445</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>45796.61449074074</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>45345</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>45182</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>46050.34430555555</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4489,7 +4489,7 @@
         <v>45695.50104166667</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>45182</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>45646.42027777778</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>44314</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>44784.69390046296</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>44810</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>44452.92001157408</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>44803.40796296296</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>44284.56082175926</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>44302</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>44880</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>44677</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>44734</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>44734.59699074074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>44858.64782407408</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>44645</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>44535</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>44572.34782407407</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>44386</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>44455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>44497</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44721</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44612.92134259259</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44612.92251157408</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44658</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44641</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44775</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>44273.59601851852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>44273.61895833333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>44575</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>44795</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>44855</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>44612.92259259259</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>44735</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>44413</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>44379</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>44245</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>44245</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>44473</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>44447.35380787037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>44447.36201388889</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>44452.91890046297</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7005,7 +7005,7 @@
         <v>44571</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7062,7 +7062,7 @@
         <v>44519.32098379629</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7119,7 +7119,7 @@
         <v>44237</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>44473</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7233,7 +7233,7 @@
         <v>44532</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7290,7 +7290,7 @@
         <v>44844</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         <v>44482.92244212963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>44612.92157407408</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>44612</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>44339</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>44385.82789351852</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>44851.43311342593</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>44729.68305555556</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>44413.91990740741</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>44819.5896875</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>44662.92425925926</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>44697</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         <v>44812</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44827.50721064815</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>44841.41417824074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>44331</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>44824</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>44475</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>44635.92523148148</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>44386</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>44580</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>44641</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>44574</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>44277</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44644</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44817</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>44615.9247800926</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>44340</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>44488</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>44627.92642361111</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>44627.9264699074</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9087,7 +9087,7 @@
         <v>44789</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>45687</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9201,7 +9201,7 @@
         <v>45246</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9258,7 +9258,7 @@
         <v>45625.50078703704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>45079</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9372,7 +9372,7 @@
         <v>45033.92592592593</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9429,7 +9429,7 @@
         <v>45089</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>45537</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>45537.36497685185</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>45474.66497685185</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>45048</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>45033</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>45197.47825231482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>45548</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>45622</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>45580.47027777778</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>45253</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>45700</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>45019</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         <v>45210</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>45405</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>45184</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>44377</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>45617</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>45750.33010416666</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>45225.33805555556</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10604,7 +10604,7 @@
         <v>45484.65622685185</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>45496</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>45553</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>45572</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>45559</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>45559.61635416667</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>45743.48991898148</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>45272</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44894</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>45617.41984953704</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>45659</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>45659</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>45674</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>45581.45914351852</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>45051</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>45798</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>45199.72377314815</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>45461.58384259259</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>45761.6440625</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>45568.56800925926</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>45468</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>45800.63518518519</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>44904.57989583333</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>45800.59549768519</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>45659.61873842592</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>45800.60171296296</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>45715.45984953704</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>45170</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>45646.40557870371</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>45803.47896990741</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>45800.4647337963</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>45446</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>44960</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>44960</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>45803.47759259259</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>44733.92600694444</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>45728.64752314815</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>44239</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
         <v>44913.89579861111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>45070</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12904,7 +12904,7 @@
         <v>45806.84342592592</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12961,7 +12961,7 @@
         <v>45811.50929398148</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13018,7 +13018,7 @@
         <v>45687.56137731481</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13075,7 +13075,7 @@
         <v>45811.49811342593</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13137,7 +13137,7 @@
         <v>45888.93040509259</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13194,7 +13194,7 @@
         <v>45888.93484953704</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         <v>45889</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13308,7 +13308,7 @@
         <v>45636</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         <v>45810.37159722222</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>45811.52162037037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>45890.65048611111</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13546,7 +13546,7 @@
         <v>45776</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13603,7 +13603,7 @@
         <v>45813.37797453703</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13665,7 +13665,7 @@
         <v>45891.34827546297</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13722,7 +13722,7 @@
         <v>45891.53695601852</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13779,7 +13779,7 @@
         <v>45251</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>45890</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         <v>45813.46613425926</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>45890.62754629629</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14012,7 +14012,7 @@
         <v>45891.59393518518</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14069,7 +14069,7 @@
         <v>44902.92510416666</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14126,7 +14126,7 @@
         <v>45813.654375</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14183,7 +14183,7 @@
         <v>45197.38826388889</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>45895.52715277778</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>45030.5209375</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14359,7 +14359,7 @@
         <v>45893</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>45895.3334837963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44860</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>45251</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14592,7 +14592,7 @@
         <v>45894.67332175926</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14649,7 +14649,7 @@
         <v>45365</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>45454</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44322.91846064815</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>45896.60637731481</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>45695.45655092593</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>45901</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>45033.92583333333</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>45818.65878472223</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15115,7 +15115,7 @@
         <v>44805</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15172,7 +15172,7 @@
         <v>45610.59465277778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>45687.60042824074</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>45903</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>45902.48045138889</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>45757.45982638889</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>45607.63787037037</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>45903</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>45904.64270833333</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>45904.59950231481</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>45090</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>45824.39509259259</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>45202</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>45779</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>44953.47570601852</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>45541.33385416667</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>45744.47206018519</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>45909.56289351852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>45825.43400462963</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>45824.33494212963</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>45824.41008101852</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>45149.5874537037</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>45540.54907407407</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16471,7 +16471,7 @@
         <v>45910.57907407408</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         <v>45910.60444444444</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>45827</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16652,7 +16652,7 @@
         <v>45458</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16709,7 +16709,7 @@
         <v>45458</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16766,7 +16766,7 @@
         <v>45912.62055555556</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16828,7 +16828,7 @@
         <v>45757.60878472222</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>45915.58412037037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16947,7 +16947,7 @@
         <v>45826.45071759259</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>45912</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
         <v>45912.63537037037</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17118,7 +17118,7 @@
         <v>45205.5255787037</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17175,7 +17175,7 @@
         <v>45826.32677083334</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17232,7 +17232,7 @@
         <v>45917.653125</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>45581.67887731481</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>45153</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>45831.63315972222</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>45617.4600462963</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>45918.64709490741</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
         <v>45919.66621527778</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>45715.32680555555</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17708,7 +17708,7 @@
         <v>45670</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>45670</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17822,7 +17822,7 @@
         <v>45918.62368055555</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>45458</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>45832.37649305556</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>45832.61085648148</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
         <v>45635.61375</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         <v>45922.56931712963</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>45807.40113425926</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>45924.64480324074</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>45833.35861111111</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>45832.55502314815</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18417,7 +18417,7 @@
         <v>45835</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>45835</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18531,7 +18531,7 @@
         <v>45835</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
         <v>45029</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>45671</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>44911</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>45226</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18821,7 +18821,7 @@
         <v>45233</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>45834.70775462963</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18940,7 +18940,7 @@
         <v>45926.47561342592</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19002,7 +19002,7 @@
         <v>45835.53893518518</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>44516</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>45480.57652777778</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>45929.50489583334</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>45750.3231712963</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19297,7 +19297,7 @@
         <v>45929.52806712963</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>45661</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>45664</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>45352</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44516</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>45502</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>45502</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>45594.53015046296</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>45281.53866898148</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>45930.61439814815</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>45930.63690972222</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>45839.53807870371</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>45191.48872685185</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>45512.92891203704</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>45930.61894675926</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>45474.62798611111</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>45839.54767361111</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>44783</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20333,7 +20333,7 @@
         <v>44838.92494212963</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20390,7 +20390,7 @@
         <v>45839.46233796296</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20452,7 +20452,7 @@
         <v>45839.5271875</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20509,7 +20509,7 @@
         <v>45839.57009259259</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20566,7 +20566,7 @@
         <v>45162</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20623,7 +20623,7 @@
         <v>45839.54072916666</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20680,7 +20680,7 @@
         <v>45653</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20737,7 +20737,7 @@
         <v>45933.34513888889</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20794,7 +20794,7 @@
         <v>44938</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20851,7 +20851,7 @@
         <v>45933.64456018519</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20908,7 +20908,7 @@
         <v>45839.49627314815</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20970,7 +20970,7 @@
         <v>45839.54482638889</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21027,7 +21027,7 @@
         <v>45838.45792824074</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21084,7 +21084,7 @@
         <v>44945.92484953703</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         <v>44487</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21203,7 +21203,7 @@
         <v>45841.28633101852</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>45936.34415509259</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>45938.34753472222</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>45938.32828703704</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>45939.61072916666</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21498,7 +21498,7 @@
         <v>45544</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>45701</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21617,7 +21617,7 @@
         <v>45841.38987268518</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>45841.39737268518</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21731,7 +21731,7 @@
         <v>45939.59528935186</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>44901</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>45938.31708333334</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>45938.33891203703</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>45937.3825462963</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>45509.37478009259</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22083,7 +22083,7 @@
         <v>45509.37478009259</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22140,7 +22140,7 @@
         <v>45335</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22197,7 +22197,7 @@
         <v>45278</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>45819</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>45671</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>45454.51224537037</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>45695.57164351852</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>45719.53226851852</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>45848.60824074074</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22606,7 +22606,7 @@
         <v>45848.62711805556</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
         <v>45782</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>45947.34706018519</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
         <v>45853.57020833333</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         <v>45852.61484953704</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22891,7 +22891,7 @@
         <v>45950.51460648148</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>45177</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
         <v>45856.53145833333</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23062,7 +23062,7 @@
         <v>44823</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23119,7 +23119,7 @@
         <v>45856.55130787037</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         <v>45856.50510416667</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>45405</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23290,7 +23290,7 @@
         <v>45856.47466435185</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         <v>45856.48679398148</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23404,7 +23404,7 @@
         <v>45856.54179398148</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23461,7 +23461,7 @@
         <v>45789.63767361111</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         <v>45951.65707175926</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         <v>45090</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>45005</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>44580</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         <v>45957.62625</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23803,7 +23803,7 @@
         <v>45020</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>45870.51164351852</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23922,7 +23922,7 @@
         <v>45873.47204861111</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23979,7 +23979,7 @@
         <v>45873</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24036,7 +24036,7 @@
         <v>45957.3458912037</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24098,7 +24098,7 @@
         <v>45957.38414351852</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24155,7 +24155,7 @@
         <v>44502.91891203704</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24212,7 +24212,7 @@
         <v>45958.60057870371</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>45959.35769675926</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>45873.46689814814</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>45872.63649305556</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>45246.58361111111</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>44980.68075231482</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24564,7 +24564,7 @@
         <v>45873.78482638889</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24621,7 +24621,7 @@
         <v>45959.895625</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24683,7 +24683,7 @@
         <v>45960.83863425926</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24745,7 +24745,7 @@
         <v>45961.33986111111</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24807,7 +24807,7 @@
         <v>45965.74070601852</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24864,7 +24864,7 @@
         <v>45965.73465277778</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24921,7 +24921,7 @@
         <v>45965.31461805556</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24978,7 +24978,7 @@
         <v>45880.47910879629</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25035,7 +25035,7 @@
         <v>45671</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>45966.30361111111</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45146</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>45965.7542824074</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>45251.38590277778</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45510.34210648148</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45246.59564814815</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>45253.59967592593</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25511,7 +25511,7 @@
         <v>45968</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25568,7 +25568,7 @@
         <v>45365.3278125</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25625,7 +25625,7 @@
         <v>45162</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25682,7 +25682,7 @@
         <v>44355.66364583333</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25739,7 +25739,7 @@
         <v>45357</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25796,7 +25796,7 @@
         <v>45712.44364583334</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25853,7 +25853,7 @@
         <v>45628</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25910,7 +25910,7 @@
         <v>45887.61462962963</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25967,7 +25967,7 @@
         <v>45975.57861111111</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26029,7 +26029,7 @@
         <v>44725</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>45587</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26153,7 +26153,7 @@
         <v>45974.53111111111</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>45580.79371527778</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>45124</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>45013</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>44973</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>45981.51613425926</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26505,7 +26505,7 @@
         <v>45741</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26562,7 +26562,7 @@
         <v>45981.45725694444</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26624,7 +26624,7 @@
         <v>45042</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26681,7 +26681,7 @@
         <v>45981.57976851852</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26738,7 +26738,7 @@
         <v>45679</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26795,7 +26795,7 @@
         <v>44467</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26852,7 +26852,7 @@
         <v>46027.5158912037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26909,7 +26909,7 @@
         <v>45141.93166666666</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26971,7 +26971,7 @@
         <v>45664</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27028,7 +27028,7 @@
         <v>45166</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27085,7 +27085,7 @@
         <v>46022</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27142,7 +27142,7 @@
         <v>45987.40146990741</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27199,7 +27199,7 @@
         <v>45611.38657407407</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27256,7 +27256,7 @@
         <v>44936</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27313,7 +27313,7 @@
         <v>44734.58537037037</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27370,7 +27370,7 @@
         <v>45205.53640046297</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27427,7 +27427,7 @@
         <v>46031.38577546296</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27484,7 +27484,7 @@
         <v>45076</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27541,7 +27541,7 @@
         <v>45020</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27603,7 +27603,7 @@
         <v>45992.29917824074</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27660,7 +27660,7 @@
         <v>44475</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27717,7 +27717,7 @@
         <v>45992.73780092593</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27774,7 +27774,7 @@
         <v>45146.38486111111</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27836,7 +27836,7 @@
         <v>44239</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27898,7 +27898,7 @@
         <v>46037.62767361111</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>45994.34417824074</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28012,7 +28012,7 @@
         <v>45386</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28069,7 +28069,7 @@
         <v>44980</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28131,7 +28131,7 @@
         <v>46037.61684027778</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28188,7 +28188,7 @@
         <v>45002</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28245,7 +28245,7 @@
         <v>45995</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28302,7 +28302,7 @@
         <v>45614.52643518519</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28359,7 +28359,7 @@
         <v>45129.5255787037</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28416,7 +28416,7 @@
         <v>45182.65770833333</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28473,7 +28473,7 @@
         <v>45996.59361111111</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28530,7 +28530,7 @@
         <v>45090</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>45999</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>45999</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28701,7 +28701,7 @@
         <v>45404.63964120371</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28758,7 +28758,7 @@
         <v>45163</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28820,7 +28820,7 @@
         <v>46000.44934027778</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28882,7 +28882,7 @@
         <v>45610.59471064815</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>45610.34976851852</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>46042.71438657407</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29058,7 +29058,7 @@
         <v>45302.43986111111</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29115,7 +29115,7 @@
         <v>46000.5859837963</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29172,7 +29172,7 @@
         <v>46000.45891203704</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29234,7 +29234,7 @@
         <v>46000.43319444444</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29296,7 +29296,7 @@
         <v>45537.59991898148</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29358,7 +29358,7 @@
         <v>45611</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29415,7 +29415,7 @@
         <v>46042.76789351852</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29472,7 +29472,7 @@
         <v>45475</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29529,7 +29529,7 @@
         <v>45160.4729050926</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29591,7 +29591,7 @@
         <v>45630</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29648,7 +29648,7 @@
         <v>45620.4262962963</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29705,7 +29705,7 @@
         <v>45678</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29767,7 +29767,7 @@
         <v>45635</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>46002.37701388889</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>45646.42921296296</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29938,7 +29938,7 @@
         <v>46003.69472222222</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>45458.29769675926</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>45041</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>46049</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>45559</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30228,7 +30228,7 @@
         <v>45133</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30290,7 +30290,7 @@
         <v>45646.41387731482</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30347,7 +30347,7 @@
         <v>45741</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30404,7 +30404,7 @@
         <v>46050.34429398148</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30461,7 +30461,7 @@
         <v>46050.34435185185</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30518,7 +30518,7 @@
         <v>45756.4359375</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30575,7 +30575,7 @@
         <v>45678</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30637,7 +30637,7 @@
         <v>46050.34427083333</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30694,7 +30694,7 @@
         <v>46050.34438657408</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30751,7 +30751,7 @@
         <v>46050.34450231482</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30808,7 +30808,7 @@
         <v>46050.34459490741</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30865,7 +30865,7 @@
         <v>45271</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>45551</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         <v>46051.70982638889</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31036,7 +31036,7 @@
         <v>46050.34443287037</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>46050.3446875</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>46048</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31207,7 +31207,7 @@
         <v>45268</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31264,7 +31264,7 @@
         <v>45307</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31321,7 +31321,7 @@
         <v>45607.65512731481</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31378,7 +31378,7 @@
         <v>45470.66340277778</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31435,7 +31435,7 @@
         <v>45301</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31492,7 +31492,7 @@
         <v>45712.45840277777</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31549,7 +31549,7 @@
         <v>46056.75780092592</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31606,7 +31606,7 @@
         <v>46030</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>45261</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31720,7 +31720,7 @@
         <v>45617.39003472222</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31777,7 +31777,7 @@
         <v>45160</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31834,7 +31834,7 @@
         <v>45561.55239583334</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31891,7 +31891,7 @@
         <v>46031</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31948,7 +31948,7 @@
         <v>45176</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32005,7 +32005,7 @@
         <v>45365</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32062,7 +32062,7 @@
         <v>46059.51925925926</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32119,7 +32119,7 @@
         <v>45548</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32176,7 +32176,7 @@
         <v>45568</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32233,7 +32233,7 @@
         <v>46059.55626157407</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32290,7 +32290,7 @@
         <v>45667</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32352,7 +32352,7 @@
         <v>45610.59431712963</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>46058.45982638889</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>45245</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32538,7 +32538,7 @@
         <v>45415</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32595,7 +32595,7 @@
         <v>44580</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32652,7 +32652,7 @@
         <v>45526.62267361111</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32714,7 +32714,7 @@
         <v>45432</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32771,7 +32771,7 @@
         <v>45719.63577546296</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32828,7 +32828,7 @@
         <v>45636.69321759259</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32885,7 +32885,7 @@
         <v>45644</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32942,7 +32942,7 @@
         <v>45145.55239583334</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33004,7 +33004,7 @@
         <v>45601.43474537037</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33066,7 +33066,7 @@
         <v>44919</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33123,7 +33123,7 @@
         <v>44876</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33180,7 +33180,7 @@
         <v>45646.58731481482</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33237,7 +33237,7 @@
         <v>45463</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33294,7 +33294,7 @@
         <v>45029</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33351,7 +33351,7 @@
         <v>45511.4325925926</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33408,7 +33408,7 @@
         <v>45420</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33470,7 +33470,7 @@
         <v>45674</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33527,7 +33527,7 @@
         <v>45565.49755787037</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33584,7 +33584,7 @@
         <v>45627</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33641,7 +33641,7 @@
         <v>45215.78850694445</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33698,7 +33698,7 @@
         <v>45708.60898148148</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33755,7 +33755,7 @@
         <v>45049</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33812,7 +33812,7 @@
         <v>44901</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33869,7 +33869,7 @@
         <v>45140</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33926,7 +33926,7 @@
         <v>45600.31105324074</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33983,7 +33983,7 @@
         <v>45587.38643518519</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>45538</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34102,7 +34102,7 @@
         <v>45250.47113425926</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34159,7 +34159,7 @@
         <v>45610.59439814815</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34221,7 +34221,7 @@
         <v>45583.3650462963</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34278,7 +34278,7 @@
         <v>44571</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34335,7 +34335,7 @@
         <v>44895</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34392,7 +34392,7 @@
         <v>45238.41365740741</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34449,7 +34449,7 @@
         <v>45468</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34506,7 +34506,7 @@
         <v>45545.40222222222</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34563,7 +34563,7 @@
         <v>45661</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34620,7 +34620,7 @@
         <v>45664</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34677,7 +34677,7 @@
         <v>45695.35236111111</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34734,7 +34734,7 @@
         <v>45708.47898148148</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34791,7 +34791,7 @@
         <v>45580.31106481481</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34848,7 +34848,7 @@
         <v>45009</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34905,7 +34905,7 @@
         <v>45496.62179398148</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34967,7 +34967,7 @@
         <v>44622</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35029,7 +35029,7 @@
         <v>45082</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35086,7 +35086,7 @@
         <v>45644.37731481482</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35143,7 +35143,7 @@
         <v>44952.54068287037</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35200,7 +35200,7 @@
         <v>44980</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35257,7 +35257,7 @@
         <v>45111</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35319,7 +35319,7 @@
         <v>45274</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35376,7 +35376,7 @@
         <v>45708.49795138889</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35433,7 +35433,7 @@
         <v>45184.56421296296</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35495,7 +35495,7 @@
         <v>45580</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35552,7 +35552,7 @@
         <v>44952</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35609,7 +35609,7 @@
         <v>45607</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>45659</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35723,7 +35723,7 @@
         <v>44980</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35780,7 +35780,7 @@
         <v>45182</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35837,7 +35837,7 @@
         <v>45631</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>45433</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35956,7 +35956,7 @@
         <v>45509.36456018518</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36013,7 +36013,7 @@
         <v>45254</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36075,7 +36075,7 @@
         <v>45271</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36132,7 +36132,7 @@
         <v>45135</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36194,7 +36194,7 @@
         <v>45712</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36256,7 +36256,7 @@
         <v>45636.78251157407</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36313,7 +36313,7 @@
         <v>45040</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36370,7 +36370,7 @@
         <v>45013</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36427,7 +36427,7 @@
         <v>45176</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36489,7 +36489,7 @@
         <v>44683.46040509259</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36551,7 +36551,7 @@
         <v>45530.50326388889</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36608,7 +36608,7 @@
         <v>45530.50581018518</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36665,7 +36665,7 @@
         <v>44960</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36722,7 +36722,7 @@
         <v>44588</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36779,7 +36779,7 @@
         <v>45659.63700231481</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36836,7 +36836,7 @@
         <v>45699.67743055556</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36893,7 +36893,7 @@
         <v>45176</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         <v>45525.53164351852</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37012,7 +37012,7 @@
         <v>45769.5737037037</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37069,7 +37069,7 @@
         <v>45692.34487268519</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37126,7 +37126,7 @@
         <v>45646.43638888889</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37183,7 +37183,7 @@
         <v>45671</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37240,7 +37240,7 @@
         <v>44551.9203125</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37297,7 +37297,7 @@
         <v>45744</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37354,7 +37354,7 @@
         <v>44263.27416666667</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37411,7 +37411,7 @@
         <v>44732</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37468,7 +37468,7 @@
         <v>44811.93648148148</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37525,7 +37525,7 @@
         <v>44699</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37582,7 +37582,7 @@
         <v>45607.55600694445</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37639,7 +37639,7 @@
         <v>44901</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37696,7 +37696,7 @@
         <v>45246</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37753,7 +37753,7 @@
         <v>45005</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37810,7 +37810,7 @@
         <v>45148.37356481481</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37872,7 +37872,7 @@
         <v>45447</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37929,7 +37929,7 @@
         <v>45670</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         <v>45687</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38043,7 +38043,7 @@
         <v>45442</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38100,7 +38100,7 @@
         <v>45701.68518518518</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38157,7 +38157,7 @@
         <v>45734.5574537037</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38214,7 +38214,7 @@
         <v>45161</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38271,7 +38271,7 @@
         <v>45246</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38328,7 +38328,7 @@
         <v>45246</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38385,7 +38385,7 @@
         <v>45160</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38442,7 +38442,7 @@
         <v>45644.32280092593</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38499,7 +38499,7 @@
         <v>45628</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38556,7 +38556,7 @@
         <v>45779.34300925926</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38613,7 +38613,7 @@
         <v>45779.33128472222</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38670,7 +38670,7 @@
         <v>45784</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38727,7 +38727,7 @@
         <v>45789.6372337963</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38784,7 +38784,7 @@
         <v>45572.35177083333</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38841,7 +38841,7 @@
         <v>45495.58291666667</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38903,7 +38903,7 @@
         <v>45642.71113425926</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>45188</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39017,7 +39017,7 @@
         <v>45791.54234953703</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39079,7 +39079,7 @@
         <v>45789.49042824074</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39136,7 +39136,7 @@
         <v>45792.63686342593</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39193,7 +39193,7 @@
         <v>45792.67769675926</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39250,7 +39250,7 @@
         <v>45792.65528935185</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39307,7 +39307,7 @@
         <v>45792.69844907407</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39364,7 +39364,7 @@
         <v>45796.38870370371</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39421,7 +39421,7 @@
         <v>45796.40104166666</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39478,7 +39478,7 @@
         <v>45794</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>

--- a/Översikt ROBERTSFORS.xlsx
+++ b/Översikt ROBERTSFORS.xlsx
@@ -575,7 +575,7 @@
         <v>45936.67924768518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>45944.63659722222</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45656</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44473.40152777778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
         <v>45967.31410879629</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>45939.69342592593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45810.42046296296</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>45848.54172453703</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>45915.55431712963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45841.36940972223</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>45937.46267361111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>45776.56769675926</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>45560</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>45504</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>45153</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>45468.58577546296</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>45848.57890046296</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>45957.44629629629</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>46038.38196759259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>46050.34460648148</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>45182</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>45785.45925925926</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>44497</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>45307</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>45687.42112268518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>45656</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>45891.53680555556</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>45908.59594907407</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>45912</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>45926</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>45835</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3512,7 +3512,7 @@
         <v>45245</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>45844.72150462963</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>45510</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>45848.63575231482</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>45856.49604166667</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>45939.71892361111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>45873.65006944445</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>45796.61449074074</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>45345</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>45182</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>46050.34430555555</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4489,7 +4489,7 @@
         <v>45695.50104166667</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>45182</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>45646.42027777778</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>44314</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>44784.69390046296</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>44810</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>44452.92001157408</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>44803.40796296296</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>44284.56082175926</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>44302</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>44880</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>44677</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>44734</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>44734.59699074074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>44858.64782407408</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>44645</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>44535</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>44572.34782407407</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>44386</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>44455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>44497</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44721</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44612.92134259259</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44612.92251157408</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44658</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44641</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44775</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>44273.59601851852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>44273.61895833333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>44575</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>44795</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>44855</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>44612.92259259259</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>44735</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>44413</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>44379</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>44245</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>44245</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>44473</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>44447.35380787037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>44447.36201388889</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>44452.91890046297</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7005,7 +7005,7 @@
         <v>44571</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7062,7 +7062,7 @@
         <v>44519.32098379629</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7119,7 +7119,7 @@
         <v>44237</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>44473</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7233,7 +7233,7 @@
         <v>44532</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7290,7 +7290,7 @@
         <v>44844</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         <v>44482.92244212963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>44612.92157407408</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>44612</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>44339</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>44385.82789351852</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>44851.43311342593</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>44729.68305555556</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>44413.91990740741</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>44819.5896875</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>44662.92425925926</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>44697</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         <v>44812</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44827.50721064815</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>44841.41417824074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>44331</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>44824</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>44475</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>44635.92523148148</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>44386</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>44580</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>44641</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>44574</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>44277</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44644</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44817</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>44615.9247800926</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>44340</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>44488</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>44627.92642361111</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>44627.9264699074</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9087,7 +9087,7 @@
         <v>44789</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>45687</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9201,7 +9201,7 @@
         <v>45246</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9258,7 +9258,7 @@
         <v>45625.50078703704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>45079</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9372,7 +9372,7 @@
         <v>45033.92592592593</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9429,7 +9429,7 @@
         <v>45089</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>45537</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>45537.36497685185</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>45474.66497685185</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>45048</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>45033</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>45197.47825231482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>45548</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>45622</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>45580.47027777778</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>45253</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>45700</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>45019</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         <v>45210</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>45405</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>45184</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>44377</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>45617</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>45750.33010416666</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>45225.33805555556</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10604,7 +10604,7 @@
         <v>45484.65622685185</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>45496</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>45553</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>45572</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>45559</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>45559.61635416667</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>45743.48991898148</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>45272</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44894</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>45617.41984953704</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>45659</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>45659</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>45674</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>45581.45914351852</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>45051</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>45798</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>45199.72377314815</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>45461.58384259259</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>45761.6440625</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>45568.56800925926</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>45468</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>45800.63518518519</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>44904.57989583333</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>45800.59549768519</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>45659.61873842592</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>45800.60171296296</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>45715.45984953704</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>45170</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>45646.40557870371</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>45803.47896990741</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>45800.4647337963</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>45446</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>44960</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>44960</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>45803.47759259259</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>44733.92600694444</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>45728.64752314815</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>44239</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
         <v>44913.89579861111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>45070</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12904,7 +12904,7 @@
         <v>45806.84342592592</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12961,7 +12961,7 @@
         <v>45811.50929398148</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13018,7 +13018,7 @@
         <v>45687.56137731481</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13075,7 +13075,7 @@
         <v>45811.49811342593</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13137,7 +13137,7 @@
         <v>45888.93040509259</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13194,7 +13194,7 @@
         <v>45888.93484953704</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         <v>45889</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13308,7 +13308,7 @@
         <v>45636</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         <v>45810.37159722222</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>45811.52162037037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>45890.65048611111</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13546,7 +13546,7 @@
         <v>45776</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13603,7 +13603,7 @@
         <v>45813.37797453703</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13665,7 +13665,7 @@
         <v>45891.34827546297</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13722,7 +13722,7 @@
         <v>45891.53695601852</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13779,7 +13779,7 @@
         <v>45251</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>45890</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         <v>45813.46613425926</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>45890.62754629629</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14012,7 +14012,7 @@
         <v>45891.59393518518</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14069,7 +14069,7 @@
         <v>44902.92510416666</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14126,7 +14126,7 @@
         <v>45813.654375</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14183,7 +14183,7 @@
         <v>45197.38826388889</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>45895.52715277778</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>45030.5209375</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14359,7 +14359,7 @@
         <v>45893</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>45895.3334837963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44860</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>45251</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14592,7 +14592,7 @@
         <v>45894.67332175926</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14649,7 +14649,7 @@
         <v>45365</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>45454</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44322.91846064815</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>45896.60637731481</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>45695.45655092593</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>45901</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>45033.92583333333</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>45818.65878472223</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15115,7 +15115,7 @@
         <v>44805</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15172,7 +15172,7 @@
         <v>45610.59465277778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>45687.60042824074</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>45903</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>45902.48045138889</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>45757.45982638889</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>45607.63787037037</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>45903</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>45904.64270833333</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>45904.59950231481</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>45090</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>45824.39509259259</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>45202</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>45779</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>44953.47570601852</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>45541.33385416667</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>45744.47206018519</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>45909.56289351852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>45825.43400462963</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>45824.33494212963</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>45824.41008101852</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>45149.5874537037</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>45540.54907407407</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16471,7 +16471,7 @@
         <v>45910.57907407408</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         <v>45910.60444444444</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>45827</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16652,7 +16652,7 @@
         <v>45458</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16709,7 +16709,7 @@
         <v>45458</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16766,7 +16766,7 @@
         <v>45912.62055555556</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16828,7 +16828,7 @@
         <v>45757.60878472222</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>45915.58412037037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16947,7 +16947,7 @@
         <v>45826.45071759259</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>45912</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
         <v>45912.63537037037</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17118,7 +17118,7 @@
         <v>45205.5255787037</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17175,7 +17175,7 @@
         <v>45826.32677083334</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17232,7 +17232,7 @@
         <v>45917.653125</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>45581.67887731481</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>45153</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>45831.63315972222</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>45617.4600462963</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>45918.64709490741</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
         <v>45919.66621527778</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>45715.32680555555</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17708,7 +17708,7 @@
         <v>45670</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>45670</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17822,7 +17822,7 @@
         <v>45918.62368055555</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>45458</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>45832.37649305556</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>45832.61085648148</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
         <v>45635.61375</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         <v>45922.56931712963</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>45807.40113425926</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>45924.64480324074</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>45833.35861111111</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>45832.55502314815</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18417,7 +18417,7 @@
         <v>45835</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>45835</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18531,7 +18531,7 @@
         <v>45835</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
         <v>45029</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>45671</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>44911</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>45226</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18821,7 +18821,7 @@
         <v>45233</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>45834.70775462963</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18940,7 +18940,7 @@
         <v>45926.47561342592</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19002,7 +19002,7 @@
         <v>45835.53893518518</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>44516</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>45480.57652777778</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>45929.50489583334</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>45750.3231712963</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19297,7 +19297,7 @@
         <v>45929.52806712963</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>45661</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>45664</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>45352</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44516</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>45502</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>45502</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>45594.53015046296</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>45281.53866898148</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>45930.61439814815</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>45930.63690972222</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>45839.53807870371</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>45191.48872685185</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>45512.92891203704</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>45930.61894675926</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>45474.62798611111</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>45839.54767361111</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>44783</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20333,7 +20333,7 @@
         <v>44838.92494212963</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20390,7 +20390,7 @@
         <v>45839.46233796296</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20452,7 +20452,7 @@
         <v>45839.5271875</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20509,7 +20509,7 @@
         <v>45839.57009259259</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20566,7 +20566,7 @@
         <v>45162</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20623,7 +20623,7 @@
         <v>45839.54072916666</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20680,7 +20680,7 @@
         <v>45653</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20737,7 +20737,7 @@
         <v>45933.34513888889</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20794,7 +20794,7 @@
         <v>44938</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20851,7 +20851,7 @@
         <v>45933.64456018519</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20908,7 +20908,7 @@
         <v>45839.49627314815</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20970,7 +20970,7 @@
         <v>45839.54482638889</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21027,7 +21027,7 @@
         <v>45838.45792824074</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21084,7 +21084,7 @@
         <v>44945.92484953703</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         <v>44487</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21203,7 +21203,7 @@
         <v>45841.28633101852</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>45936.34415509259</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>45938.34753472222</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>45938.32828703704</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>45939.61072916666</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21498,7 +21498,7 @@
         <v>45544</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>45701</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21617,7 +21617,7 @@
         <v>45841.38987268518</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>45841.39737268518</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21731,7 +21731,7 @@
         <v>45939.59528935186</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>44901</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>45938.31708333334</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>45938.33891203703</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>45937.3825462963</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>45509.37478009259</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22083,7 +22083,7 @@
         <v>45509.37478009259</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22140,7 +22140,7 @@
         <v>45335</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22197,7 +22197,7 @@
         <v>45278</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>45819</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>45671</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>45454.51224537037</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>45695.57164351852</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>45719.53226851852</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>45848.60824074074</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22606,7 +22606,7 @@
         <v>45848.62711805556</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
         <v>45782</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>45947.34706018519</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
         <v>45853.57020833333</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         <v>45852.61484953704</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22891,7 +22891,7 @@
         <v>45950.51460648148</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>45177</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
         <v>45856.53145833333</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23062,7 +23062,7 @@
         <v>44823</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23119,7 +23119,7 @@
         <v>45856.55130787037</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         <v>45856.50510416667</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>45405</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23290,7 +23290,7 @@
         <v>45856.47466435185</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         <v>45856.48679398148</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23404,7 +23404,7 @@
         <v>45856.54179398148</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23461,7 +23461,7 @@
         <v>45789.63767361111</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         <v>45951.65707175926</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         <v>45090</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>45005</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>44580</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         <v>45957.62625</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23803,7 +23803,7 @@
         <v>45020</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>45870.51164351852</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23922,7 +23922,7 @@
         <v>45873.47204861111</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23979,7 +23979,7 @@
         <v>45873</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24036,7 +24036,7 @@
         <v>45957.3458912037</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24098,7 +24098,7 @@
         <v>45957.38414351852</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24155,7 +24155,7 @@
         <v>44502.91891203704</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24212,7 +24212,7 @@
         <v>45958.60057870371</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>45959.35769675926</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>45873.46689814814</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>45872.63649305556</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>45246.58361111111</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>44980.68075231482</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24564,7 +24564,7 @@
         <v>45873.78482638889</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24621,7 +24621,7 @@
         <v>45959.895625</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24683,7 +24683,7 @@
         <v>45960.83863425926</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24745,7 +24745,7 @@
         <v>45961.33986111111</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24807,7 +24807,7 @@
         <v>45965.74070601852</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24864,7 +24864,7 @@
         <v>45965.73465277778</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24921,7 +24921,7 @@
         <v>45965.31461805556</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24978,7 +24978,7 @@
         <v>45880.47910879629</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25035,7 +25035,7 @@
         <v>45671</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>45966.30361111111</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45146</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>45965.7542824074</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>45251.38590277778</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45510.34210648148</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45246.59564814815</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>45253.59967592593</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25511,7 +25511,7 @@
         <v>45968</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25568,7 +25568,7 @@
         <v>45365.3278125</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25625,7 +25625,7 @@
         <v>45162</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25682,7 +25682,7 @@
         <v>44355.66364583333</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25739,7 +25739,7 @@
         <v>45357</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25796,7 +25796,7 @@
         <v>45712.44364583334</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25853,7 +25853,7 @@
         <v>45628</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25910,7 +25910,7 @@
         <v>45887.61462962963</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25967,7 +25967,7 @@
         <v>45975.57861111111</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26029,7 +26029,7 @@
         <v>44725</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>45587</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26153,7 +26153,7 @@
         <v>45974.53111111111</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>45580.79371527778</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>45124</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>45013</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>44973</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>45981.51613425926</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26505,7 +26505,7 @@
         <v>45741</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26562,7 +26562,7 @@
         <v>45981.45725694444</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26624,7 +26624,7 @@
         <v>45042</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26681,7 +26681,7 @@
         <v>45981.57976851852</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26738,7 +26738,7 @@
         <v>45679</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26795,7 +26795,7 @@
         <v>44467</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26852,7 +26852,7 @@
         <v>46027.5158912037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26909,7 +26909,7 @@
         <v>45141.93166666666</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26971,7 +26971,7 @@
         <v>45664</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27028,7 +27028,7 @@
         <v>45166</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27085,7 +27085,7 @@
         <v>46022</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27142,7 +27142,7 @@
         <v>45987.40146990741</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27199,7 +27199,7 @@
         <v>45611.38657407407</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27256,7 +27256,7 @@
         <v>44936</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27313,7 +27313,7 @@
         <v>44734.58537037037</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27370,7 +27370,7 @@
         <v>45205.53640046297</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27427,7 +27427,7 @@
         <v>46031.38577546296</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27484,7 +27484,7 @@
         <v>45076</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27541,7 +27541,7 @@
         <v>45020</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27603,7 +27603,7 @@
         <v>45992.29917824074</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27660,7 +27660,7 @@
         <v>44475</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27717,7 +27717,7 @@
         <v>45992.73780092593</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27774,7 +27774,7 @@
         <v>45146.38486111111</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27836,7 +27836,7 @@
         <v>44239</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27898,7 +27898,7 @@
         <v>46037.62767361111</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>45994.34417824074</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28012,7 +28012,7 @@
         <v>45386</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28069,7 +28069,7 @@
         <v>44980</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28131,7 +28131,7 @@
         <v>46037.61684027778</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28188,7 +28188,7 @@
         <v>45002</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28245,7 +28245,7 @@
         <v>45995</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28302,7 +28302,7 @@
         <v>45614.52643518519</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28359,7 +28359,7 @@
         <v>45129.5255787037</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28416,7 +28416,7 @@
         <v>45182.65770833333</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28473,7 +28473,7 @@
         <v>45996.59361111111</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28530,7 +28530,7 @@
         <v>45090</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>45999</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>45999</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28701,7 +28701,7 @@
         <v>45404.63964120371</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28758,7 +28758,7 @@
         <v>45163</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28820,7 +28820,7 @@
         <v>46000.44934027778</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28882,7 +28882,7 @@
         <v>45610.59471064815</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>45610.34976851852</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>46042.71438657407</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29058,7 +29058,7 @@
         <v>45302.43986111111</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29115,7 +29115,7 @@
         <v>46000.5859837963</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29172,7 +29172,7 @@
         <v>46000.45891203704</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29234,7 +29234,7 @@
         <v>46000.43319444444</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29296,7 +29296,7 @@
         <v>45537.59991898148</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29358,7 +29358,7 @@
         <v>45611</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29415,7 +29415,7 @@
         <v>46042.76789351852</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29472,7 +29472,7 @@
         <v>45475</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29529,7 +29529,7 @@
         <v>45160.4729050926</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29591,7 +29591,7 @@
         <v>45630</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29648,7 +29648,7 @@
         <v>45620.4262962963</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29705,7 +29705,7 @@
         <v>45678</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29767,7 +29767,7 @@
         <v>45635</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>46002.37701388889</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>45646.42921296296</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29938,7 +29938,7 @@
         <v>46003.69472222222</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>45458.29769675926</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>45041</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>46049</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>45559</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30228,7 +30228,7 @@
         <v>45133</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30290,7 +30290,7 @@
         <v>45646.41387731482</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30347,7 +30347,7 @@
         <v>45741</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30404,7 +30404,7 @@
         <v>46050.34429398148</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30461,7 +30461,7 @@
         <v>46050.34435185185</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30518,7 +30518,7 @@
         <v>45756.4359375</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30575,7 +30575,7 @@
         <v>45678</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30637,7 +30637,7 @@
         <v>46050.34427083333</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30694,7 +30694,7 @@
         <v>46050.34438657408</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30751,7 +30751,7 @@
         <v>46050.34450231482</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30808,7 +30808,7 @@
         <v>46050.34459490741</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30865,7 +30865,7 @@
         <v>45271</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>45551</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         <v>46051.70982638889</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31036,7 +31036,7 @@
         <v>46050.34443287037</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>46050.3446875</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>46048</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31207,7 +31207,7 @@
         <v>45268</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31264,7 +31264,7 @@
         <v>45307</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31321,7 +31321,7 @@
         <v>45607.65512731481</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31378,7 +31378,7 @@
         <v>45470.66340277778</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31435,7 +31435,7 @@
         <v>45301</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31492,7 +31492,7 @@
         <v>45712.45840277777</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31549,7 +31549,7 @@
         <v>46056.75780092592</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31606,7 +31606,7 @@
         <v>46030</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>45261</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31720,7 +31720,7 @@
         <v>45617.39003472222</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31777,7 +31777,7 @@
         <v>45160</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31834,7 +31834,7 @@
         <v>45561.55239583334</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31891,7 +31891,7 @@
         <v>46031</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31948,7 +31948,7 @@
         <v>45176</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32005,7 +32005,7 @@
         <v>45365</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32062,7 +32062,7 @@
         <v>46059.51925925926</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32119,7 +32119,7 @@
         <v>45548</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32176,7 +32176,7 @@
         <v>45568</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32233,7 +32233,7 @@
         <v>46059.55626157407</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32290,7 +32290,7 @@
         <v>45667</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32352,7 +32352,7 @@
         <v>45610.59431712963</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>46058.45982638889</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>45245</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32538,7 +32538,7 @@
         <v>45415</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32595,7 +32595,7 @@
         <v>44580</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32652,7 +32652,7 @@
         <v>45526.62267361111</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32714,7 +32714,7 @@
         <v>45432</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32771,7 +32771,7 @@
         <v>45719.63577546296</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32828,7 +32828,7 @@
         <v>45636.69321759259</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32885,7 +32885,7 @@
         <v>45644</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32942,7 +32942,7 @@
         <v>45145.55239583334</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33004,7 +33004,7 @@
         <v>45601.43474537037</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33066,7 +33066,7 @@
         <v>44919</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33123,7 +33123,7 @@
         <v>44876</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33180,7 +33180,7 @@
         <v>45646.58731481482</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33237,7 +33237,7 @@
         <v>45463</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33294,7 +33294,7 @@
         <v>45029</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33351,7 +33351,7 @@
         <v>45511.4325925926</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33408,7 +33408,7 @@
         <v>45420</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33470,7 +33470,7 @@
         <v>45674</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33527,7 +33527,7 @@
         <v>45565.49755787037</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33584,7 +33584,7 @@
         <v>45627</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33641,7 +33641,7 @@
         <v>45215.78850694445</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33698,7 +33698,7 @@
         <v>45708.60898148148</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33755,7 +33755,7 @@
         <v>45049</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33812,7 +33812,7 @@
         <v>44901</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33869,7 +33869,7 @@
         <v>45140</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33926,7 +33926,7 @@
         <v>45600.31105324074</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33983,7 +33983,7 @@
         <v>45587.38643518519</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>45538</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34102,7 +34102,7 @@
         <v>45250.47113425926</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34159,7 +34159,7 @@
         <v>45610.59439814815</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34221,7 +34221,7 @@
         <v>45583.3650462963</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34278,7 +34278,7 @@
         <v>44571</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34335,7 +34335,7 @@
         <v>44895</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34392,7 +34392,7 @@
         <v>45238.41365740741</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34449,7 +34449,7 @@
         <v>45468</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34506,7 +34506,7 @@
         <v>45545.40222222222</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34563,7 +34563,7 @@
         <v>45661</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34620,7 +34620,7 @@
         <v>45664</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34677,7 +34677,7 @@
         <v>45695.35236111111</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34734,7 +34734,7 @@
         <v>45708.47898148148</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34791,7 +34791,7 @@
         <v>45580.31106481481</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34848,7 +34848,7 @@
         <v>45009</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34905,7 +34905,7 @@
         <v>45496.62179398148</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34967,7 +34967,7 @@
         <v>44622</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35029,7 +35029,7 @@
         <v>45082</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35086,7 +35086,7 @@
         <v>45644.37731481482</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35143,7 +35143,7 @@
         <v>44952.54068287037</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35200,7 +35200,7 @@
         <v>44980</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35257,7 +35257,7 @@
         <v>45111</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35319,7 +35319,7 @@
         <v>45274</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35376,7 +35376,7 @@
         <v>45708.49795138889</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35433,7 +35433,7 @@
         <v>45184.56421296296</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35495,7 +35495,7 @@
         <v>45580</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35552,7 +35552,7 @@
         <v>44952</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35609,7 +35609,7 @@
         <v>45607</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>45659</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35723,7 +35723,7 @@
         <v>44980</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35780,7 +35780,7 @@
         <v>45182</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35837,7 +35837,7 @@
         <v>45631</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>45433</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35956,7 +35956,7 @@
         <v>45509.36456018518</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36013,7 +36013,7 @@
         <v>45254</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36075,7 +36075,7 @@
         <v>45271</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36132,7 +36132,7 @@
         <v>45135</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36194,7 +36194,7 @@
         <v>45712</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36256,7 +36256,7 @@
         <v>45636.78251157407</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36313,7 +36313,7 @@
         <v>45040</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36370,7 +36370,7 @@
         <v>45013</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36427,7 +36427,7 @@
         <v>45176</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36489,7 +36489,7 @@
         <v>44683.46040509259</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36551,7 +36551,7 @@
         <v>45530.50326388889</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36608,7 +36608,7 @@
         <v>45530.50581018518</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36665,7 +36665,7 @@
         <v>44960</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36722,7 +36722,7 @@
         <v>44588</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36779,7 +36779,7 @@
         <v>45659.63700231481</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36836,7 +36836,7 @@
         <v>45699.67743055556</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36893,7 +36893,7 @@
         <v>45176</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         <v>45525.53164351852</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37012,7 +37012,7 @@
         <v>45769.5737037037</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37069,7 +37069,7 @@
         <v>45692.34487268519</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37126,7 +37126,7 @@
         <v>45646.43638888889</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37183,7 +37183,7 @@
         <v>45671</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37240,7 +37240,7 @@
         <v>44551.9203125</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37297,7 +37297,7 @@
         <v>45744</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37354,7 +37354,7 @@
         <v>44263.27416666667</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37411,7 +37411,7 @@
         <v>44732</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37468,7 +37468,7 @@
         <v>44811.93648148148</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37525,7 +37525,7 @@
         <v>44699</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37582,7 +37582,7 @@
         <v>45607.55600694445</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37639,7 +37639,7 @@
         <v>44901</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37696,7 +37696,7 @@
         <v>45246</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37753,7 +37753,7 @@
         <v>45005</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37810,7 +37810,7 @@
         <v>45148.37356481481</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37872,7 +37872,7 @@
         <v>45447</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37929,7 +37929,7 @@
         <v>45670</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         <v>45687</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38043,7 +38043,7 @@
         <v>45442</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38100,7 +38100,7 @@
         <v>45701.68518518518</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38157,7 +38157,7 @@
         <v>45734.5574537037</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38214,7 +38214,7 @@
         <v>45161</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38271,7 +38271,7 @@
         <v>45246</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38328,7 +38328,7 @@
         <v>45246</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38385,7 +38385,7 @@
         <v>45160</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38442,7 +38442,7 @@
         <v>45644.32280092593</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38499,7 +38499,7 @@
         <v>45628</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38556,7 +38556,7 @@
         <v>45779.34300925926</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38613,7 +38613,7 @@
         <v>45779.33128472222</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38670,7 +38670,7 @@
         <v>45784</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38727,7 +38727,7 @@
         <v>45789.6372337963</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38784,7 +38784,7 @@
         <v>45572.35177083333</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38841,7 +38841,7 @@
         <v>45495.58291666667</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38903,7 +38903,7 @@
         <v>45642.71113425926</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>45188</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39017,7 +39017,7 @@
         <v>45791.54234953703</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39079,7 +39079,7 @@
         <v>45789.49042824074</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39136,7 +39136,7 @@
         <v>45792.63686342593</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39193,7 +39193,7 @@
         <v>45792.67769675926</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39250,7 +39250,7 @@
         <v>45792.65528935185</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39307,7 +39307,7 @@
         <v>45792.69844907407</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39364,7 +39364,7 @@
         <v>45796.38870370371</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39421,7 +39421,7 @@
         <v>45796.40104166666</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39478,7 +39478,7 @@
         <v>45794</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>

--- a/Översikt ROBERTSFORS.xlsx
+++ b/Översikt ROBERTSFORS.xlsx
@@ -575,7 +575,7 @@
         <v>45936.67924768518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>45944.63659722222</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45656</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44473.40152777778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
         <v>45967.31410879629</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>45939.69342592593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>46050.3446875</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>45848.54172453703</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>45810.42046296296</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45841.36940972223</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>45915.55431712963</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>45937.46267361111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>46037.61684027778</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>45776.56769675926</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>45560</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>45504</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>45153</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>45468.58577546296</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>45848.57890046296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>45957.44629629629</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>46038.38196759259</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>46050.34443287037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>46050.34460648148</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>45182</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>45785.45925925926</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44497</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>45307</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>45687.42112268518</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>45656</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>45891.53680555556</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>45835</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>45908.59594907407</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>45844.72150462963</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>45912</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>45848.63575231482</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>45856.49604166667</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>45245</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>45926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>45873.65006944445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>45510</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>45796.61449074074</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>45345</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>45182</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>46050.34430555555</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>45939.71892361111</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>46030</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>45695.50104166667</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>45182</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>45646.42027777778</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>44314</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>44784.69390046296</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>44810</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>44452.92001157408</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>44803.40796296296</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>44284.56082175926</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>44302</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>44880</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>44677</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>44734</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>44734.59699074074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44858.64782407408</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>44645</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44535</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44572.34782407407</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44386</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>44455</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>44497</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>44721</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>44658</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>44612.92134259259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>44612.92251157408</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44641</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>44775</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>44273.59601851852</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>44273.61895833333</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         <v>44575</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>44795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>44735</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
         <v>44612.92259259259</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>44855</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6907,7 +6907,7 @@
         <v>44413</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>44379</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>44473</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44447.35380787037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>44447.36201388889</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>44452.91890046297</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>44519.32098379629</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>44571</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>44473</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>44532</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>44844</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>44482.92244212963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>44612.92157407408</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>44612</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>44339</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>44385.82789351852</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>44851.43311342593</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>44729.68305555556</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         <v>44413.91990740741</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>44819.5896875</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>44662.92425925926</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>44697</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>44812</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44827.50721064815</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44841.41417824074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>44331</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>44824</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>44475</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8538,7 +8538,7 @@
         <v>44635.92523148148</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>44386</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8652,7 +8652,7 @@
         <v>44580</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>44641</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>44574</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>44644</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>44277</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>44817</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>44615.9247800926</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>44340</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>44488</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>44627.92642361111</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>44627.9264699074</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9279,7 +9279,7 @@
         <v>44789</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>45687</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>45033.92592592593</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>45089</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>45079</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>45625.50078703704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>45474.66497685185</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9688,7 +9688,7 @@
         <v>45246</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9745,7 +9745,7 @@
         <v>45537</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>45537.36497685185</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>45197.47825231482</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>45048</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         <v>45548</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>45033</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10102,7 +10102,7 @@
         <v>45622</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>45700</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>45580.47027777778</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>45253</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>45019</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>45210</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>45405</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>45617</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>45184</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>44377</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>45496</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>45750.33010416666</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>45484.65622685185</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>45553</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         <v>45225.33805555556</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>45572</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>45559</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>45559.61635416667</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>45272</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>45617.41984953704</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>45743.48991898148</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>44894</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>45674</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>45659</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>45659</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>45581.45914351852</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>45199.72377314815</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>45568.56800925926</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>45051</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>45461.58384259259</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>44904.57989583333</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>45468</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>45659.61873842592</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>45170</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>45715.45984953704</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>45646.40557870371</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>45446</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44733.92600694444</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>45728.64752314815</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44960</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44960</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44913.89579861111</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>45070</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44902.92510416666</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>45197.38826388889</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>45251</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>45030.5209375</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44860</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>45251</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12930,7 +12930,7 @@
         <v>45818.65878472223</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12987,7 +12987,7 @@
         <v>45454</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>44322.91846064815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>45695.45655092593</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>45033.92583333333</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>44805</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>45610.59465277778</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>45824.39509259259</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>45687.60042824074</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13448,7 +13448,7 @@
         <v>45825.43400462963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>45824.33494212963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>45824.41008101852</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>45888.93040509259</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>45888.93484953704</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>45889</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>45811.52162037037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>45757.45982638889</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13914,7 +13914,7 @@
         <v>45607.63787037037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>45890.65048611111</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>45776</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>45891.34827546297</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>45891.53695601852</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>45890</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>45827</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>45090</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>45890.62754629629</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>45891.59393518518</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>45826.45071759259</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>45202</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>45895.52715277778</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>44953.47570601852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>45826.32677083334</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>45744.47206018519</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>45893</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>45895.3334837963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>45831.63315972222</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>45894.67332175926</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>45149.5874537037</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15126,7 +15126,7 @@
         <v>45365</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>45832.37649305556</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15240,7 +15240,7 @@
         <v>45458</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15297,7 +15297,7 @@
         <v>45458</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15354,7 +15354,7 @@
         <v>45832.61085648148</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15416,7 +15416,7 @@
         <v>45757.60878472222</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>45807.40113425926</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>45833.35861111111</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>45896.60637731481</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15649,7 +15649,7 @@
         <v>45832.55502314815</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>45901</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>45835</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>45835</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>45835</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>45205.5255787037</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>45834.70775462963</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>45581.67887731481</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>45835.53893518518</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16177,7 +16177,7 @@
         <v>45153</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16234,7 +16234,7 @@
         <v>45617.4600462963</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>45903</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16353,7 +16353,7 @@
         <v>45839.53807870371</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16410,7 +16410,7 @@
         <v>45715.32680555555</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>45902.48045138889</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>45474.62798611111</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>45670</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>45670</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>45903</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>45839.54767361111</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>45839.46233796296</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>45904.64270833333</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>45458</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>45839.5271875</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>45839.57009259259</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>45839.54072916666</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>45904.59950231481</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>45635.61375</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>45779</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>45839.49627314815</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17414,7 +17414,7 @@
         <v>45839.54482638889</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17471,7 +17471,7 @@
         <v>45541.33385416667</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>45838.45792824074</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>45841.28633101852</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17652,7 +17652,7 @@
         <v>45909.56289351852</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17709,7 +17709,7 @@
         <v>45540.54907407407</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17771,7 +17771,7 @@
         <v>45841.38987268518</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17828,7 +17828,7 @@
         <v>45841.39737268518</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17885,7 +17885,7 @@
         <v>45910.57907407408</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         <v>45029</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18004,7 +18004,7 @@
         <v>45910.60444444444</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>45671</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>45509.37478009259</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>45509.37478009259</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44911</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>45912.62055555556</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
         <v>45819</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18418,7 +18418,7 @@
         <v>45915.58412037037</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>45226</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>45233</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44516</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>45912</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>45480.57652777778</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>45750.3231712963</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>45912.63537037037</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>45661</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>45664</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>45352</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44516</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>45502</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>45502</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>45848.60824074074</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>45594.53015046296</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>45281.53866898148</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19402,7 +19402,7 @@
         <v>45848.62711805556</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         <v>45917.653125</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>45191.48872685185</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>45512.92891203704</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>44783</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>44838.92494212963</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>45918.64709490741</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19811,7 +19811,7 @@
         <v>45853.57020833333</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19868,7 +19868,7 @@
         <v>45852.61484953704</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19925,7 +19925,7 @@
         <v>45919.66621527778</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>45162</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>45653</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>44938</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45856.53145833333</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>45918.62368055555</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20272,7 +20272,7 @@
         <v>45856.55130787037</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20329,7 +20329,7 @@
         <v>45856.50510416667</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         <v>45856.47466435185</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20443,7 +20443,7 @@
         <v>45856.48679398148</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20500,7 +20500,7 @@
         <v>45856.54179398148</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20557,7 +20557,7 @@
         <v>45789.63767361111</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20614,7 +20614,7 @@
         <v>44945.92484953703</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20671,7 +20671,7 @@
         <v>44487</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>45922.56931712963</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>45924.64480324074</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20857,7 +20857,7 @@
         <v>45544</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20919,7 +20919,7 @@
         <v>45701</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20976,7 +20976,7 @@
         <v>44901</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>45926.47561342592</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>45870.51164351852</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>45929.50489583334</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         <v>45873.47204861111</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21271,7 +21271,7 @@
         <v>45929.52806712963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>45873</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>45930.61439814815</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>45930.63690972222</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>45873.46689814814</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>45872.63649305556</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>45335</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>45930.61894675926</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>45278</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         <v>45671</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>45873.78482638889</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>45933.34513888889</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21965,7 +21965,7 @@
         <v>45454.51224537037</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22022,7 +22022,7 @@
         <v>45933.64456018519</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22079,7 +22079,7 @@
         <v>45695.57164351852</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22136,7 +22136,7 @@
         <v>45719.53226851852</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22193,7 +22193,7 @@
         <v>45880.47910879629</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22250,7 +22250,7 @@
         <v>45177</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22307,7 +22307,7 @@
         <v>45936.34415509259</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22364,7 +22364,7 @@
         <v>44823</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22421,7 +22421,7 @@
         <v>45405</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>45938.34753472222</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>45090</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>45938.32828703704</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>45939.61072916666</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>45005</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22768,7 +22768,7 @@
         <v>45939.59528935186</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22830,7 +22830,7 @@
         <v>44580</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22887,7 +22887,7 @@
         <v>45938.31708333334</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22944,7 +22944,7 @@
         <v>45938.33891203703</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23001,7 +23001,7 @@
         <v>45937.3825462963</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
         <v>45020</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23125,7 +23125,7 @@
         <v>45887.61462962963</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23182,7 +23182,7 @@
         <v>44502.91891203704</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23239,7 +23239,7 @@
         <v>45246.58361111111</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23296,7 +23296,7 @@
         <v>44980.68075231482</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23358,7 +23358,7 @@
         <v>45782</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>45947.34706018519</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23472,7 +23472,7 @@
         <v>45950.51460648148</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>45951.65707175926</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>45671</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>45957.62625</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>45146</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23757,7 +23757,7 @@
         <v>45251.38590277778</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>45510.34210648148</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>45246.59564814815</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>45253.59967592593</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>45957.3458912037</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>45957.38414351852</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>45958.60057870371</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>45365.3278125</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>45959.35769675926</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24295,7 +24295,7 @@
         <v>45162</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24352,7 +24352,7 @@
         <v>45959.895625</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24414,7 +24414,7 @@
         <v>44355.66364583333</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24471,7 +24471,7 @@
         <v>45357</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24528,7 +24528,7 @@
         <v>45712.44364583334</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24585,7 +24585,7 @@
         <v>45960.83863425926</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24647,7 +24647,7 @@
         <v>45628</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24704,7 +24704,7 @@
         <v>45961.33986111111</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24766,7 +24766,7 @@
         <v>44725</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24828,7 +24828,7 @@
         <v>45587</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>45965.74070601852</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>45580.79371527778</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>45124</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>45965.73465277778</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>45965.31461805556</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>45013</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>44973</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>45966.30361111111</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25351,7 +25351,7 @@
         <v>45965.7542824074</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25408,7 +25408,7 @@
         <v>45741</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25465,7 +25465,7 @@
         <v>45042</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25522,7 +25522,7 @@
         <v>45679</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         <v>45968</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25636,7 +25636,7 @@
         <v>44467</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25693,7 +25693,7 @@
         <v>45141.93166666666</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25755,7 +25755,7 @@
         <v>45664</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25812,7 +25812,7 @@
         <v>45166</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25869,7 +25869,7 @@
         <v>45611.38657407407</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25926,7 +25926,7 @@
         <v>45975.57861111111</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25988,7 +25988,7 @@
         <v>45974.53111111111</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>44936</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>44734.58537037037</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>45981.51613425926</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45205.53640046297</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>45981.45725694444</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26345,7 +26345,7 @@
         <v>45981.57976851852</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26402,7 +26402,7 @@
         <v>45076</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26459,7 +26459,7 @@
         <v>45020</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26521,7 +26521,7 @@
         <v>44475</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26578,7 +26578,7 @@
         <v>45146.38486111111</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26640,7 +26640,7 @@
         <v>45987.40146990741</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26697,7 +26697,7 @@
         <v>45386</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26754,7 +26754,7 @@
         <v>45992.29917824074</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26811,7 +26811,7 @@
         <v>44980</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>45992.73780092593</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26930,7 +26930,7 @@
         <v>45002</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26987,7 +26987,7 @@
         <v>45614.52643518519</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27044,7 +27044,7 @@
         <v>46037.62767361111</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27101,7 +27101,7 @@
         <v>45994.34417824074</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27158,7 +27158,7 @@
         <v>45129.5255787037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27215,7 +27215,7 @@
         <v>45182.65770833333</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27272,7 +27272,7 @@
         <v>45090</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27329,7 +27329,7 @@
         <v>45995</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27386,7 +27386,7 @@
         <v>45996.59361111111</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27443,7 +27443,7 @@
         <v>45404.63964120371</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27500,7 +27500,7 @@
         <v>45163</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27562,7 +27562,7 @@
         <v>45610.59471064815</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>45610.34976851852</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27681,7 +27681,7 @@
         <v>45302.43986111111</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27738,7 +27738,7 @@
         <v>45999</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27795,7 +27795,7 @@
         <v>45999</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27852,7 +27852,7 @@
         <v>45537.59991898148</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>45611</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>46000.44934027778</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>45475</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>46042.71438657407</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>45160.4729050926</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28209,7 +28209,7 @@
         <v>45630</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>45620.4262962963</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28323,7 +28323,7 @@
         <v>46000.5859837963</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28380,7 +28380,7 @@
         <v>46000.45891203704</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28442,7 +28442,7 @@
         <v>46000.43319444444</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28504,7 +28504,7 @@
         <v>46042.76789351852</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28561,7 +28561,7 @@
         <v>45635</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28618,7 +28618,7 @@
         <v>45646.42921296296</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         <v>45458.29769675926</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>45678</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28794,7 +28794,7 @@
         <v>45041</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28851,7 +28851,7 @@
         <v>46002.37701388889</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28908,7 +28908,7 @@
         <v>46003.69472222222</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28965,7 +28965,7 @@
         <v>45559</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29027,7 +29027,7 @@
         <v>45133</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29089,7 +29089,7 @@
         <v>45646.41387731482</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29146,7 +29146,7 @@
         <v>45741</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29203,7 +29203,7 @@
         <v>45756.4359375</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29260,7 +29260,7 @@
         <v>45678</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29322,7 +29322,7 @@
         <v>46049</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29379,7 +29379,7 @@
         <v>45271</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29436,7 +29436,7 @@
         <v>45551</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29493,7 +29493,7 @@
         <v>45268</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29550,7 +29550,7 @@
         <v>46050.34429398148</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29607,7 +29607,7 @@
         <v>46050.34435185185</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29664,7 +29664,7 @@
         <v>45307</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29721,7 +29721,7 @@
         <v>46050.34427083333</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29778,7 +29778,7 @@
         <v>45607.65512731481</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29835,7 +29835,7 @@
         <v>46051.70982638889</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29892,7 +29892,7 @@
         <v>45470.66340277778</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29949,7 +29949,7 @@
         <v>46048</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30006,7 +30006,7 @@
         <v>45301</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30063,7 +30063,7 @@
         <v>45712.45840277777</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30120,7 +30120,7 @@
         <v>45261</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30177,7 +30177,7 @@
         <v>45617.39003472222</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30234,7 +30234,7 @@
         <v>45160</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30291,7 +30291,7 @@
         <v>45561.55239583334</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30348,7 +30348,7 @@
         <v>46056.75780092592</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30405,7 +30405,7 @@
         <v>45176</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30462,7 +30462,7 @@
         <v>45365</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30519,7 +30519,7 @@
         <v>45548</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30576,7 +30576,7 @@
         <v>45568</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30633,7 +30633,7 @@
         <v>46059.51925925926</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30690,7 +30690,7 @@
         <v>45667</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30752,7 +30752,7 @@
         <v>45610.59431712963</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30814,7 +30814,7 @@
         <v>46059.55626157407</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30871,7 +30871,7 @@
         <v>45245</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30933,7 +30933,7 @@
         <v>45415</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30990,7 +30990,7 @@
         <v>44580</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31047,7 +31047,7 @@
         <v>45526.62267361111</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31109,7 +31109,7 @@
         <v>46058.45982638889</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31171,7 +31171,7 @@
         <v>45432</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31228,7 +31228,7 @@
         <v>46063.7046412037</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31285,7 +31285,7 @@
         <v>46050</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31342,7 +31342,7 @@
         <v>45719.63577546296</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31399,7 +31399,7 @@
         <v>45636.69321759259</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31456,7 +31456,7 @@
         <v>45644</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31513,7 +31513,7 @@
         <v>45145.55239583334</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31575,7 +31575,7 @@
         <v>46063.46484953703</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31632,7 +31632,7 @@
         <v>45601.43474537037</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31694,7 +31694,7 @@
         <v>46065.45136574074</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31751,7 +31751,7 @@
         <v>46065.45789351852</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31808,7 +31808,7 @@
         <v>44919</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31865,7 +31865,7 @@
         <v>44876</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31922,7 +31922,7 @@
         <v>45646.58731481482</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31979,7 +31979,7 @@
         <v>46022</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32036,7 +32036,7 @@
         <v>46065.47174768519</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32093,7 +32093,7 @@
         <v>45463</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32150,7 +32150,7 @@
         <v>45029</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32207,7 +32207,7 @@
         <v>46027.5158912037</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32264,7 +32264,7 @@
         <v>45511.4325925926</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32321,7 +32321,7 @@
         <v>46066.31010416667</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32378,7 +32378,7 @@
         <v>45420</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32440,7 +32440,7 @@
         <v>46050</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32497,7 +32497,7 @@
         <v>46050.34459490741</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32554,7 +32554,7 @@
         <v>45674</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32611,7 +32611,7 @@
         <v>45565.49755787037</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32668,7 +32668,7 @@
         <v>45627</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32725,7 +32725,7 @@
         <v>45215.78850694445</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32782,7 +32782,7 @@
         <v>45708.60898148148</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32839,7 +32839,7 @@
         <v>45049</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32896,7 +32896,7 @@
         <v>44901</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32953,7 +32953,7 @@
         <v>45140</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33010,7 +33010,7 @@
         <v>45600.31105324074</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         <v>46031</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33124,7 +33124,7 @@
         <v>45587.38643518519</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33181,7 +33181,7 @@
         <v>46031.38577546296</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33238,7 +33238,7 @@
         <v>45538</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33300,7 +33300,7 @@
         <v>45250.47113425926</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33357,7 +33357,7 @@
         <v>45610.59439814815</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33419,7 +33419,7 @@
         <v>45583.3650462963</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33476,7 +33476,7 @@
         <v>44571</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33533,7 +33533,7 @@
         <v>44895</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33590,7 +33590,7 @@
         <v>45238.41365740741</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33647,7 +33647,7 @@
         <v>45468</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33704,7 +33704,7 @@
         <v>45545.40222222222</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33761,7 +33761,7 @@
         <v>45661</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33818,7 +33818,7 @@
         <v>45664</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33875,7 +33875,7 @@
         <v>45695.35236111111</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33932,7 +33932,7 @@
         <v>45708.47898148148</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33989,7 +33989,7 @@
         <v>45580.31106481481</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34046,7 +34046,7 @@
         <v>45009</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34103,7 +34103,7 @@
         <v>45496.62179398148</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>44622</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34227,7 +34227,7 @@
         <v>45082</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34284,7 +34284,7 @@
         <v>45644.37731481482</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34341,7 +34341,7 @@
         <v>44952.54068287037</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34398,7 +34398,7 @@
         <v>44980</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34455,7 +34455,7 @@
         <v>45111</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>45274</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34574,7 +34574,7 @@
         <v>45708.49795138889</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34631,7 +34631,7 @@
         <v>45184.56421296296</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34693,7 +34693,7 @@
         <v>45580</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34750,7 +34750,7 @@
         <v>44952</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34807,7 +34807,7 @@
         <v>45607</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34864,7 +34864,7 @@
         <v>45659</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34921,7 +34921,7 @@
         <v>44980</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34978,7 +34978,7 @@
         <v>45182</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35035,7 +35035,7 @@
         <v>45631</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35092,7 +35092,7 @@
         <v>45433</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35154,7 +35154,7 @@
         <v>45509.36456018518</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35211,7 +35211,7 @@
         <v>45254</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>45271</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>45135</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35392,7 +35392,7 @@
         <v>45712</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35454,7 +35454,7 @@
         <v>45636.78251157407</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35511,7 +35511,7 @@
         <v>45040</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>45013</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35625,7 +35625,7 @@
         <v>45176</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35687,7 +35687,7 @@
         <v>44683.46040509259</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35749,7 +35749,7 @@
         <v>45530.50326388889</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35806,7 +35806,7 @@
         <v>45530.50581018518</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35863,7 +35863,7 @@
         <v>44960</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35920,7 +35920,7 @@
         <v>44588</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35977,7 +35977,7 @@
         <v>45659.63700231481</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36034,7 +36034,7 @@
         <v>45699.67743055556</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         <v>45176</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36153,7 +36153,7 @@
         <v>45525.53164351852</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36210,7 +36210,7 @@
         <v>45769.5737037037</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36267,7 +36267,7 @@
         <v>45692.34487268519</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36324,7 +36324,7 @@
         <v>45646.43638888889</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36381,7 +36381,7 @@
         <v>45671</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36438,7 +36438,7 @@
         <v>44551.9203125</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36495,7 +36495,7 @@
         <v>45744</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36552,7 +36552,7 @@
         <v>44263.27416666667</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36609,7 +36609,7 @@
         <v>44732</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36666,7 +36666,7 @@
         <v>44811.93648148148</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36723,7 +36723,7 @@
         <v>44699</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36780,7 +36780,7 @@
         <v>45607.55600694445</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36837,7 +36837,7 @@
         <v>44901</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36894,7 +36894,7 @@
         <v>45246</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36951,7 +36951,7 @@
         <v>45005</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37008,7 +37008,7 @@
         <v>45148.37356481481</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37070,7 +37070,7 @@
         <v>45447</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37127,7 +37127,7 @@
         <v>45670</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37184,7 +37184,7 @@
         <v>45687</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37241,7 +37241,7 @@
         <v>45442</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37298,7 +37298,7 @@
         <v>45701.68518518518</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37355,7 +37355,7 @@
         <v>45734.5574537037</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37412,7 +37412,7 @@
         <v>45161</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37469,7 +37469,7 @@
         <v>45246</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37526,7 +37526,7 @@
         <v>45246</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37583,7 +37583,7 @@
         <v>45160</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37640,7 +37640,7 @@
         <v>45644.32280092593</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37697,7 +37697,7 @@
         <v>45628</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37754,7 +37754,7 @@
         <v>45779.34300925926</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37811,7 +37811,7 @@
         <v>45779.33128472222</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37868,7 +37868,7 @@
         <v>45784</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37925,7 +37925,7 @@
         <v>45789.6372337963</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37982,7 +37982,7 @@
         <v>45572.35177083333</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38039,7 +38039,7 @@
         <v>45495.58291666667</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38101,7 +38101,7 @@
         <v>45642.71113425926</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38158,7 +38158,7 @@
         <v>45188</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38215,7 +38215,7 @@
         <v>45791.54234953703</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38277,7 +38277,7 @@
         <v>45789.49042824074</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38334,7 +38334,7 @@
         <v>45792.63686342593</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38391,7 +38391,7 @@
         <v>45792.67769675926</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38448,7 +38448,7 @@
         <v>45792.65528935185</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38505,7 +38505,7 @@
         <v>45792.69844907407</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38562,7 +38562,7 @@
         <v>45796.38870370371</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38619,7 +38619,7 @@
         <v>45796.40104166666</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38676,7 +38676,7 @@
         <v>45794</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38733,7 +38733,7 @@
         <v>45798</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38790,7 +38790,7 @@
         <v>45761.6440625</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38847,7 +38847,7 @@
         <v>45800.63518518519</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38904,7 +38904,7 @@
         <v>45800.59549768519</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38961,7 +38961,7 @@
         <v>45800.60171296296</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39018,7 +39018,7 @@
         <v>45803.47896990741</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39075,7 +39075,7 @@
         <v>45800.4647337963</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39132,7 +39132,7 @@
         <v>45803.47759259259</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39189,7 +39189,7 @@
         <v>45806.84342592592</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39246,7 +39246,7 @@
         <v>45811.50929398148</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39303,7 +39303,7 @@
         <v>45687.56137731481</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39360,7 +39360,7 @@
         <v>45811.49811342593</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39422,7 +39422,7 @@
         <v>45636</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39479,7 +39479,7 @@
         <v>45810.37159722222</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39541,7 +39541,7 @@
         <v>45813.37797453703</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39603,7 +39603,7 @@
         <v>45813.46613425926</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39660,7 +39660,7 @@
         <v>45813.654375</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>

--- a/Översikt ROBERTSFORS.xlsx
+++ b/Översikt ROBERTSFORS.xlsx
@@ -575,7 +575,7 @@
         <v>45936.67924768518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>45944.63659722222</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45656</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44473.40152777778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
         <v>45967.31410879629</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>45939.69342592593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>46050.3446875</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>45848.54172453703</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>45810.42046296296</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45841.36940972223</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>45915.55431712963</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>45937.46267361111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>46037.61684027778</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>45776.56769675926</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>45560</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>45504</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>45153</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>45468.58577546296</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>45848.57890046296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>45957.44629629629</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>46038.38196759259</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>46050.34443287037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>46050.34460648148</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>45182</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>45785.45925925926</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44497</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>45307</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>45687.42112268518</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>45656</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>45891.53680555556</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>45835</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>45908.59594907407</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>45844.72150462963</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>45912</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>45848.63575231482</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>45856.49604166667</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>45245</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>45926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>45873.65006944445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>45510</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>45796.61449074074</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>45345</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>45182</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>46050.34430555555</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>45939.71892361111</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>46030</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>45695.50104166667</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>45182</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>45646.42027777778</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>44314</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>44784.69390046296</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>44810</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>44452.92001157408</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>44803.40796296296</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>44284.56082175926</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>44302</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>44880</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>44677</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>44734</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>44734.59699074074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44858.64782407408</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>44645</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44535</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44572.34782407407</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44386</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>44455</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>44497</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>44721</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>44658</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>44612.92134259259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>44612.92251157408</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44641</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>44775</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>44273.59601851852</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>44273.61895833333</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         <v>44575</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>44795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>44735</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
         <v>44612.92259259259</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>44855</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6907,7 +6907,7 @@
         <v>44413</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>44379</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>44473</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44447.35380787037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>44447.36201388889</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>44452.91890046297</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>44519.32098379629</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>44571</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>44473</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>44532</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>44844</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>44482.92244212963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>44612.92157407408</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>44612</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>44339</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>44385.82789351852</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>44851.43311342593</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>44729.68305555556</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         <v>44413.91990740741</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>44819.5896875</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>44662.92425925926</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>44697</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>44812</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44827.50721064815</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44841.41417824074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>44331</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>44824</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>44475</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8538,7 +8538,7 @@
         <v>44635.92523148148</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>44386</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8652,7 +8652,7 @@
         <v>44580</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>44641</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>44574</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>44644</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>44277</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>44817</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>44615.9247800926</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>44340</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>44488</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>44627.92642361111</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>44627.9264699074</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9279,7 +9279,7 @@
         <v>44789</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>45687</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>45033.92592592593</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>45089</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>45079</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>45625.50078703704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>45474.66497685185</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9688,7 +9688,7 @@
         <v>45246</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9745,7 +9745,7 @@
         <v>45537</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>45537.36497685185</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>45197.47825231482</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>45048</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         <v>45548</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>45033</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10102,7 +10102,7 @@
         <v>45622</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>45700</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>45580.47027777778</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>45253</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>45019</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>45210</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>45405</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>45617</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>45184</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>44377</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>45496</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>45750.33010416666</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>45484.65622685185</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>45553</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         <v>45225.33805555556</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>45572</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>45559</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>45559.61635416667</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>45272</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>45617.41984953704</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>45743.48991898148</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>44894</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>45674</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>45659</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>45659</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>45581.45914351852</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>45199.72377314815</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>45568.56800925926</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>45051</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>45461.58384259259</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>44904.57989583333</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>45468</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>45659.61873842592</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>45170</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>45715.45984953704</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>45646.40557870371</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>45446</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44733.92600694444</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>45728.64752314815</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44960</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44960</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44913.89579861111</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>45070</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44902.92510416666</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>45197.38826388889</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>45251</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>45030.5209375</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44860</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>45251</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12930,7 +12930,7 @@
         <v>45818.65878472223</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12987,7 +12987,7 @@
         <v>45454</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>44322.91846064815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>45695.45655092593</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>45033.92583333333</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>44805</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>45610.59465277778</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>45824.39509259259</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>45687.60042824074</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13448,7 +13448,7 @@
         <v>45825.43400462963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>45824.33494212963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>45824.41008101852</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>45888.93040509259</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>45888.93484953704</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>45889</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>45811.52162037037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>45757.45982638889</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13914,7 +13914,7 @@
         <v>45607.63787037037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>45890.65048611111</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>45776</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>45891.34827546297</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>45891.53695601852</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>45890</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>45827</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>45090</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>45890.62754629629</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>45891.59393518518</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>45826.45071759259</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>45202</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>45895.52715277778</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>44953.47570601852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>45826.32677083334</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>45744.47206018519</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>45893</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>45895.3334837963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>45831.63315972222</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>45894.67332175926</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>45149.5874537037</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15126,7 +15126,7 @@
         <v>45365</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>45832.37649305556</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15240,7 +15240,7 @@
         <v>45458</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15297,7 +15297,7 @@
         <v>45458</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15354,7 +15354,7 @@
         <v>45832.61085648148</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15416,7 +15416,7 @@
         <v>45757.60878472222</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>45807.40113425926</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>45833.35861111111</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>45896.60637731481</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15649,7 +15649,7 @@
         <v>45832.55502314815</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>45901</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>45835</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>45835</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>45835</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>45205.5255787037</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>45834.70775462963</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>45581.67887731481</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>45835.53893518518</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16177,7 +16177,7 @@
         <v>45153</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16234,7 +16234,7 @@
         <v>45617.4600462963</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>45903</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16353,7 +16353,7 @@
         <v>45839.53807870371</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16410,7 +16410,7 @@
         <v>45715.32680555555</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>45902.48045138889</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>45474.62798611111</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>45670</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>45670</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>45903</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>45839.54767361111</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>45839.46233796296</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>45904.64270833333</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>45458</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>45839.5271875</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>45839.57009259259</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>45839.54072916666</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>45904.59950231481</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>45635.61375</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>45779</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>45839.49627314815</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17414,7 +17414,7 @@
         <v>45839.54482638889</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17471,7 +17471,7 @@
         <v>45541.33385416667</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>45838.45792824074</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>45841.28633101852</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17652,7 +17652,7 @@
         <v>45909.56289351852</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17709,7 +17709,7 @@
         <v>45540.54907407407</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17771,7 +17771,7 @@
         <v>45841.38987268518</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17828,7 +17828,7 @@
         <v>45841.39737268518</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17885,7 +17885,7 @@
         <v>45910.57907407408</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         <v>45029</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18004,7 +18004,7 @@
         <v>45910.60444444444</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>45671</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>45509.37478009259</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>45509.37478009259</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44911</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>45912.62055555556</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
         <v>45819</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18418,7 +18418,7 @@
         <v>45915.58412037037</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>45226</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>45233</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44516</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>45912</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>45480.57652777778</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>45750.3231712963</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>45912.63537037037</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>45661</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>45664</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>45352</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44516</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>45502</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>45502</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>45848.60824074074</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>45594.53015046296</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>45281.53866898148</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19402,7 +19402,7 @@
         <v>45848.62711805556</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         <v>45917.653125</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>45191.48872685185</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>45512.92891203704</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>44783</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>44838.92494212963</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>45918.64709490741</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19811,7 +19811,7 @@
         <v>45853.57020833333</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19868,7 +19868,7 @@
         <v>45852.61484953704</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19925,7 +19925,7 @@
         <v>45919.66621527778</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>45162</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>45653</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>44938</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45856.53145833333</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>45918.62368055555</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20272,7 +20272,7 @@
         <v>45856.55130787037</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20329,7 +20329,7 @@
         <v>45856.50510416667</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         <v>45856.47466435185</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20443,7 +20443,7 @@
         <v>45856.48679398148</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20500,7 +20500,7 @@
         <v>45856.54179398148</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20557,7 +20557,7 @@
         <v>45789.63767361111</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20614,7 +20614,7 @@
         <v>44945.92484953703</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20671,7 +20671,7 @@
         <v>44487</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>45922.56931712963</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>45924.64480324074</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20857,7 +20857,7 @@
         <v>45544</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20919,7 +20919,7 @@
         <v>45701</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20976,7 +20976,7 @@
         <v>44901</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>45926.47561342592</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>45870.51164351852</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>45929.50489583334</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         <v>45873.47204861111</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21271,7 +21271,7 @@
         <v>45929.52806712963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>45873</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>45930.61439814815</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>45930.63690972222</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>45873.46689814814</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>45872.63649305556</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>45335</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>45930.61894675926</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>45278</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         <v>45671</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>45873.78482638889</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>45933.34513888889</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21965,7 +21965,7 @@
         <v>45454.51224537037</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22022,7 +22022,7 @@
         <v>45933.64456018519</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22079,7 +22079,7 @@
         <v>45695.57164351852</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22136,7 +22136,7 @@
         <v>45719.53226851852</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22193,7 +22193,7 @@
         <v>45880.47910879629</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22250,7 +22250,7 @@
         <v>45177</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22307,7 +22307,7 @@
         <v>45936.34415509259</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22364,7 +22364,7 @@
         <v>44823</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22421,7 +22421,7 @@
         <v>45405</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>45938.34753472222</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>45090</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>45938.32828703704</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>45939.61072916666</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>45005</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22768,7 +22768,7 @@
         <v>45939.59528935186</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22830,7 +22830,7 @@
         <v>44580</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22887,7 +22887,7 @@
         <v>45938.31708333334</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22944,7 +22944,7 @@
         <v>45938.33891203703</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23001,7 +23001,7 @@
         <v>45937.3825462963</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
         <v>45020</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23125,7 +23125,7 @@
         <v>45887.61462962963</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23182,7 +23182,7 @@
         <v>44502.91891203704</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23239,7 +23239,7 @@
         <v>45246.58361111111</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23296,7 +23296,7 @@
         <v>44980.68075231482</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23358,7 +23358,7 @@
         <v>45782</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>45947.34706018519</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23472,7 +23472,7 @@
         <v>45950.51460648148</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>45951.65707175926</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>45671</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>45957.62625</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>45146</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23757,7 +23757,7 @@
         <v>45251.38590277778</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>45510.34210648148</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>45246.59564814815</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>45253.59967592593</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>45957.3458912037</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>45957.38414351852</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>45958.60057870371</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>45365.3278125</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>45959.35769675926</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24295,7 +24295,7 @@
         <v>45162</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24352,7 +24352,7 @@
         <v>45959.895625</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24414,7 +24414,7 @@
         <v>44355.66364583333</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24471,7 +24471,7 @@
         <v>45357</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24528,7 +24528,7 @@
         <v>45712.44364583334</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24585,7 +24585,7 @@
         <v>45960.83863425926</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24647,7 +24647,7 @@
         <v>45628</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24704,7 +24704,7 @@
         <v>45961.33986111111</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24766,7 +24766,7 @@
         <v>44725</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24828,7 +24828,7 @@
         <v>45587</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>45965.74070601852</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>45580.79371527778</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>45124</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>45965.73465277778</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>45965.31461805556</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>45013</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>44973</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>45966.30361111111</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25351,7 +25351,7 @@
         <v>45965.7542824074</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25408,7 +25408,7 @@
         <v>45741</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25465,7 +25465,7 @@
         <v>45042</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25522,7 +25522,7 @@
         <v>45679</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         <v>45968</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25636,7 +25636,7 @@
         <v>44467</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25693,7 +25693,7 @@
         <v>45141.93166666666</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25755,7 +25755,7 @@
         <v>45664</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25812,7 +25812,7 @@
         <v>45166</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25869,7 +25869,7 @@
         <v>45611.38657407407</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25926,7 +25926,7 @@
         <v>45975.57861111111</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25988,7 +25988,7 @@
         <v>45974.53111111111</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>44936</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>44734.58537037037</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>45981.51613425926</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45205.53640046297</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>45981.45725694444</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26345,7 +26345,7 @@
         <v>45981.57976851852</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26402,7 +26402,7 @@
         <v>45076</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26459,7 +26459,7 @@
         <v>45020</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26521,7 +26521,7 @@
         <v>44475</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26578,7 +26578,7 @@
         <v>45146.38486111111</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26640,7 +26640,7 @@
         <v>45987.40146990741</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26697,7 +26697,7 @@
         <v>45386</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26754,7 +26754,7 @@
         <v>45992.29917824074</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26811,7 +26811,7 @@
         <v>44980</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>45992.73780092593</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26930,7 +26930,7 @@
         <v>45002</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26987,7 +26987,7 @@
         <v>45614.52643518519</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27044,7 +27044,7 @@
         <v>46037.62767361111</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27101,7 +27101,7 @@
         <v>45994.34417824074</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27158,7 +27158,7 @@
         <v>45129.5255787037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27215,7 +27215,7 @@
         <v>45182.65770833333</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27272,7 +27272,7 @@
         <v>45090</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27329,7 +27329,7 @@
         <v>45995</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27386,7 +27386,7 @@
         <v>45996.59361111111</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27443,7 +27443,7 @@
         <v>45404.63964120371</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27500,7 +27500,7 @@
         <v>45163</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27562,7 +27562,7 @@
         <v>45610.59471064815</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>45610.34976851852</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27681,7 +27681,7 @@
         <v>45302.43986111111</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27738,7 +27738,7 @@
         <v>45999</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27795,7 +27795,7 @@
         <v>45999</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27852,7 +27852,7 @@
         <v>45537.59991898148</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>45611</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>46000.44934027778</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>45475</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>46042.71438657407</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>45160.4729050926</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28209,7 +28209,7 @@
         <v>45630</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>45620.4262962963</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28323,7 +28323,7 @@
         <v>46000.5859837963</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28380,7 +28380,7 @@
         <v>46000.45891203704</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28442,7 +28442,7 @@
         <v>46000.43319444444</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28504,7 +28504,7 @@
         <v>46042.76789351852</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28561,7 +28561,7 @@
         <v>45635</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28618,7 +28618,7 @@
         <v>45646.42921296296</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         <v>45458.29769675926</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>45678</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28794,7 +28794,7 @@
         <v>45041</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28851,7 +28851,7 @@
         <v>46002.37701388889</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28908,7 +28908,7 @@
         <v>46003.69472222222</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28965,7 +28965,7 @@
         <v>45559</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29027,7 +29027,7 @@
         <v>45133</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29089,7 +29089,7 @@
         <v>45646.41387731482</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29146,7 +29146,7 @@
         <v>45741</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29203,7 +29203,7 @@
         <v>45756.4359375</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29260,7 +29260,7 @@
         <v>45678</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29322,7 +29322,7 @@
         <v>46049</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29379,7 +29379,7 @@
         <v>45271</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29436,7 +29436,7 @@
         <v>45551</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29493,7 +29493,7 @@
         <v>45268</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29550,7 +29550,7 @@
         <v>46050.34429398148</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29607,7 +29607,7 @@
         <v>46050.34435185185</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29664,7 +29664,7 @@
         <v>45307</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29721,7 +29721,7 @@
         <v>46050.34427083333</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29778,7 +29778,7 @@
         <v>45607.65512731481</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29835,7 +29835,7 @@
         <v>46051.70982638889</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29892,7 +29892,7 @@
         <v>45470.66340277778</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29949,7 +29949,7 @@
         <v>46048</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30006,7 +30006,7 @@
         <v>45301</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30063,7 +30063,7 @@
         <v>45712.45840277777</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30120,7 +30120,7 @@
         <v>45261</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30177,7 +30177,7 @@
         <v>45617.39003472222</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30234,7 +30234,7 @@
         <v>45160</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30291,7 +30291,7 @@
         <v>45561.55239583334</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30348,7 +30348,7 @@
         <v>46056.75780092592</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30405,7 +30405,7 @@
         <v>45176</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30462,7 +30462,7 @@
         <v>45365</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30519,7 +30519,7 @@
         <v>45548</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30576,7 +30576,7 @@
         <v>45568</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30633,7 +30633,7 @@
         <v>46059.51925925926</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30690,7 +30690,7 @@
         <v>45667</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30752,7 +30752,7 @@
         <v>45610.59431712963</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30814,7 +30814,7 @@
         <v>46059.55626157407</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30871,7 +30871,7 @@
         <v>45245</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30933,7 +30933,7 @@
         <v>45415</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30990,7 +30990,7 @@
         <v>44580</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31047,7 +31047,7 @@
         <v>45526.62267361111</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31109,7 +31109,7 @@
         <v>46058.45982638889</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31171,7 +31171,7 @@
         <v>45432</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31228,7 +31228,7 @@
         <v>46063.7046412037</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31285,7 +31285,7 @@
         <v>46050</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31342,7 +31342,7 @@
         <v>45719.63577546296</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31399,7 +31399,7 @@
         <v>45636.69321759259</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31456,7 +31456,7 @@
         <v>45644</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31513,7 +31513,7 @@
         <v>45145.55239583334</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31575,7 +31575,7 @@
         <v>46063.46484953703</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31632,7 +31632,7 @@
         <v>45601.43474537037</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31694,7 +31694,7 @@
         <v>46065.45136574074</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31751,7 +31751,7 @@
         <v>46065.45789351852</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31808,7 +31808,7 @@
         <v>44919</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31865,7 +31865,7 @@
         <v>44876</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31922,7 +31922,7 @@
         <v>45646.58731481482</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31979,7 +31979,7 @@
         <v>46022</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32036,7 +32036,7 @@
         <v>46065.47174768519</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32093,7 +32093,7 @@
         <v>45463</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32150,7 +32150,7 @@
         <v>45029</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32207,7 +32207,7 @@
         <v>46027.5158912037</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32264,7 +32264,7 @@
         <v>45511.4325925926</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32321,7 +32321,7 @@
         <v>46066.31010416667</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32378,7 +32378,7 @@
         <v>45420</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32440,7 +32440,7 @@
         <v>46050</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32497,7 +32497,7 @@
         <v>46050.34459490741</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32554,7 +32554,7 @@
         <v>45674</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32611,7 +32611,7 @@
         <v>45565.49755787037</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32668,7 +32668,7 @@
         <v>45627</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32725,7 +32725,7 @@
         <v>45215.78850694445</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32782,7 +32782,7 @@
         <v>45708.60898148148</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32839,7 +32839,7 @@
         <v>45049</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32896,7 +32896,7 @@
         <v>44901</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32953,7 +32953,7 @@
         <v>45140</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33010,7 +33010,7 @@
         <v>45600.31105324074</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         <v>46031</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33124,7 +33124,7 @@
         <v>45587.38643518519</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33181,7 +33181,7 @@
         <v>46031.38577546296</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33238,7 +33238,7 @@
         <v>45538</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33300,7 +33300,7 @@
         <v>45250.47113425926</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33357,7 +33357,7 @@
         <v>45610.59439814815</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33419,7 +33419,7 @@
         <v>45583.3650462963</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33476,7 +33476,7 @@
         <v>44571</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33533,7 +33533,7 @@
         <v>44895</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33590,7 +33590,7 @@
         <v>45238.41365740741</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33647,7 +33647,7 @@
         <v>45468</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33704,7 +33704,7 @@
         <v>45545.40222222222</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33761,7 +33761,7 @@
         <v>45661</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33818,7 +33818,7 @@
         <v>45664</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33875,7 +33875,7 @@
         <v>45695.35236111111</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33932,7 +33932,7 @@
         <v>45708.47898148148</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33989,7 +33989,7 @@
         <v>45580.31106481481</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34046,7 +34046,7 @@
         <v>45009</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34103,7 +34103,7 @@
         <v>45496.62179398148</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>44622</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34227,7 +34227,7 @@
         <v>45082</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34284,7 +34284,7 @@
         <v>45644.37731481482</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34341,7 +34341,7 @@
         <v>44952.54068287037</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34398,7 +34398,7 @@
         <v>44980</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34455,7 +34455,7 @@
         <v>45111</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>45274</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34574,7 +34574,7 @@
         <v>45708.49795138889</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34631,7 +34631,7 @@
         <v>45184.56421296296</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34693,7 +34693,7 @@
         <v>45580</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34750,7 +34750,7 @@
         <v>44952</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34807,7 +34807,7 @@
         <v>45607</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34864,7 +34864,7 @@
         <v>45659</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34921,7 +34921,7 @@
         <v>44980</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34978,7 +34978,7 @@
         <v>45182</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35035,7 +35035,7 @@
         <v>45631</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35092,7 +35092,7 @@
         <v>45433</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35154,7 +35154,7 @@
         <v>45509.36456018518</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35211,7 +35211,7 @@
         <v>45254</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>45271</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>45135</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35392,7 +35392,7 @@
         <v>45712</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35454,7 +35454,7 @@
         <v>45636.78251157407</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35511,7 +35511,7 @@
         <v>45040</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>45013</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35625,7 +35625,7 @@
         <v>45176</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35687,7 +35687,7 @@
         <v>44683.46040509259</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35749,7 +35749,7 @@
         <v>45530.50326388889</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35806,7 +35806,7 @@
         <v>45530.50581018518</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35863,7 +35863,7 @@
         <v>44960</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35920,7 +35920,7 @@
         <v>44588</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35977,7 +35977,7 @@
         <v>45659.63700231481</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36034,7 +36034,7 @@
         <v>45699.67743055556</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         <v>45176</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36153,7 +36153,7 @@
         <v>45525.53164351852</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36210,7 +36210,7 @@
         <v>45769.5737037037</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36267,7 +36267,7 @@
         <v>45692.34487268519</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36324,7 +36324,7 @@
         <v>45646.43638888889</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36381,7 +36381,7 @@
         <v>45671</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36438,7 +36438,7 @@
         <v>44551.9203125</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36495,7 +36495,7 @@
         <v>45744</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36552,7 +36552,7 @@
         <v>44263.27416666667</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36609,7 +36609,7 @@
         <v>44732</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36666,7 +36666,7 @@
         <v>44811.93648148148</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36723,7 +36723,7 @@
         <v>44699</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36780,7 +36780,7 @@
         <v>45607.55600694445</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36837,7 +36837,7 @@
         <v>44901</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36894,7 +36894,7 @@
         <v>45246</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36951,7 +36951,7 @@
         <v>45005</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37008,7 +37008,7 @@
         <v>45148.37356481481</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37070,7 +37070,7 @@
         <v>45447</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37127,7 +37127,7 @@
         <v>45670</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37184,7 +37184,7 @@
         <v>45687</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37241,7 +37241,7 @@
         <v>45442</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37298,7 +37298,7 @@
         <v>45701.68518518518</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37355,7 +37355,7 @@
         <v>45734.5574537037</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37412,7 +37412,7 @@
         <v>45161</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37469,7 +37469,7 @@
         <v>45246</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37526,7 +37526,7 @@
         <v>45246</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37583,7 +37583,7 @@
         <v>45160</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37640,7 +37640,7 @@
         <v>45644.32280092593</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37697,7 +37697,7 @@
         <v>45628</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37754,7 +37754,7 @@
         <v>45779.34300925926</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37811,7 +37811,7 @@
         <v>45779.33128472222</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37868,7 +37868,7 @@
         <v>45784</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37925,7 +37925,7 @@
         <v>45789.6372337963</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37982,7 +37982,7 @@
         <v>45572.35177083333</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38039,7 +38039,7 @@
         <v>45495.58291666667</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38101,7 +38101,7 @@
         <v>45642.71113425926</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38158,7 +38158,7 @@
         <v>45188</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38215,7 +38215,7 @@
         <v>45791.54234953703</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38277,7 +38277,7 @@
         <v>45789.49042824074</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38334,7 +38334,7 @@
         <v>45792.63686342593</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38391,7 +38391,7 @@
         <v>45792.67769675926</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38448,7 +38448,7 @@
         <v>45792.65528935185</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38505,7 +38505,7 @@
         <v>45792.69844907407</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38562,7 +38562,7 @@
         <v>45796.38870370371</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38619,7 +38619,7 @@
         <v>45796.40104166666</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38676,7 +38676,7 @@
         <v>45794</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38733,7 +38733,7 @@
         <v>45798</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38790,7 +38790,7 @@
         <v>45761.6440625</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38847,7 +38847,7 @@
         <v>45800.63518518519</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38904,7 +38904,7 @@
         <v>45800.59549768519</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38961,7 +38961,7 @@
         <v>45800.60171296296</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39018,7 +39018,7 @@
         <v>45803.47896990741</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39075,7 +39075,7 @@
         <v>45800.4647337963</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39132,7 +39132,7 @@
         <v>45803.47759259259</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39189,7 +39189,7 @@
         <v>45806.84342592592</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39246,7 +39246,7 @@
         <v>45811.50929398148</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39303,7 +39303,7 @@
         <v>45687.56137731481</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39360,7 +39360,7 @@
         <v>45811.49811342593</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39422,7 +39422,7 @@
         <v>45636</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39479,7 +39479,7 @@
         <v>45810.37159722222</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39541,7 +39541,7 @@
         <v>45813.37797453703</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39603,7 +39603,7 @@
         <v>45813.46613425926</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39660,7 +39660,7 @@
         <v>45813.654375</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>

--- a/Översikt ROBERTSFORS.xlsx
+++ b/Översikt ROBERTSFORS.xlsx
@@ -575,7 +575,7 @@
         <v>45936.67924768518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>45944.63659722222</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45656</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44473.40152777778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
         <v>45967.31410879629</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>45939.69342592593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>46050.3446875</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>45810.42046296296</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>45848.54172453703</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45841.36940972223</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>45915.55431712963</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>45937.46267361111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>46037.61684027778</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>45776.56769675926</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>45468.58577546296</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>45848.57890046296</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>45957.44629629629</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>45504</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>45182</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>46050.34460648148</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         <v>46050.34443287037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>46038.38196759259</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>45560</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>45153</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>45785.45925925926</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44497</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>45345</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>45891.53680555556</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>45908.59594907407</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45835</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>45844.72150462963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>45848.63575231482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>45912</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>45856.49604166667</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>45182</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>45926</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3960,7 +3960,7 @@
         <v>45656</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>45873.65006944445</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>45687.42112268518</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>45796.61449074074</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>46050.34430555555</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>46056.75780092592</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
         <v>45307</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>45245</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4671,7 +4671,7 @@
         <v>46030</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>45939.71892361111</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>46080.63578703703</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>45695.50104166667</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>45510</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>45182</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45646.42027777778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>44314</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>44784.69390046296</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>44810</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>44452.92001157408</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>44803.40796296296</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>44284.56082175926</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>44302</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>44880</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>44734</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>44734.59699074074</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>44677</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>44858.64782407408</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>44645</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>44535</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>44572.34782407407</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>44386</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>44455</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>44497</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>44721</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>44612.92134259259</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>44612.92251157408</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>44658</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>44641</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
         <v>44775</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>44273.59601851852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>44273.61895833333</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44575</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>44795</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>44735</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>44855</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>44612.92259259259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>44413</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>44379</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>44473</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>44447.35380787037</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>44447.36201388889</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>44452.91890046297</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>44519.32098379629</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>44571</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>44473</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>44844</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>44482.92244212963</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>44532</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>44612.92157407408</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>44612</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>44339</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>44385.82789351852</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>44851.43311342593</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8065,7 +8065,7 @@
         <v>44729.68305555556</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
         <v>44413.91990740741</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         <v>44819.5896875</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         <v>44662.92425925926</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>44697</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8355,7 +8355,7 @@
         <v>44812</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>44827.50721064815</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>44841.41417824074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>44331</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>44824</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44475</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>44635.92523148148</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>44386</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>44580</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>44574</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>44641</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>44277</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44644</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>44817</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>44615.9247800926</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>44340</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44488</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>44627.92642361111</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>44627.9264699074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44789</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>45715.45984953704</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>45743.48991898148</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>45268</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>45750.3231712963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>45029</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>45210</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>45741</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>45433</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>45042</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>45250.47113425926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>45253</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>45526.62267361111</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>44945.92484953703</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>45461.58384259259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>45580.31106481481</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>45551</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>45454.51224537037</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>45502</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>45502</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>45140</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44860</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>45458</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>45458</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44973</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>45544</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>45246.58361111111</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>45146.38486111111</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>45568</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>44902.92510416666</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>45559</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11250,7 +11250,7 @@
         <v>45496</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>45511.4325925926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>45631</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>44487</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>45538</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>44876</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>44913.89579861111</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>45162</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>45160</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>45750.33010416666</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>45166</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>44894</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>44901</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>45420</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12068,7 +12068,7 @@
         <v>45357</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>45271</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12182,7 +12182,7 @@
         <v>45811.52162037037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>45887.61462962963</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>45617</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>45687.56137731481</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>45810.37159722222</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>45561.55239583334</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>45806.84342592592</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>45636</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>45811.49811342593</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>45568.56800925926</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>45225.33805555556</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>45671</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>45811.50929398148</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>45890</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>45813.654375</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>45813.37797453703</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>45888.93484953704</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>45813.46613425926</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>45889</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>45890.65048611111</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13342,7 +13342,7 @@
         <v>45890.62754629629</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13404,7 +13404,7 @@
         <v>45818.65878472223</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13461,7 +13461,7 @@
         <v>45030.5209375</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13518,7 +13518,7 @@
         <v>45888.93040509259</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         <v>45636.78251157407</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         <v>45894.67332175926</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>45146</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         <v>45891.53695601852</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         <v>45893</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         <v>45496.62179398148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>45891.34827546297</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>45776</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>45386</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>45824.39509259259</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>45824.41008101852</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>45404.63964120371</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>45891.59393518518</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>45824.33494212963</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14383,7 +14383,7 @@
         <v>45895.52715277778</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14440,7 +14440,7 @@
         <v>45826.32677083334</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14497,7 +14497,7 @@
         <v>45896.60637731481</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>45826.45071759259</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>45627</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>45895.3334837963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14730,7 +14730,7 @@
         <v>45825.43400462963</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>45365</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>45679</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>45827</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>45902.48045138889</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>45587.38643518519</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>45548</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15134,7 +15134,7 @@
         <v>45901</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>45904.64270833333</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>45903</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>45832.37649305556</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>45903</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>45807.40113425926</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>45832.55502314815</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>45832.61085648148</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>44732</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>45904.59950231481</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15734,7 +15734,7 @@
         <v>45831.63315972222</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>45089</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>45834.70775462963</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>45833.35861111111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>45600.31105324074</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>45779</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>45170</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16143,7 +16143,7 @@
         <v>45184.56421296296</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>45246</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>45835.53893518518</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>45838.45792824074</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>45835</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>45541.33385416667</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>45559</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16562,7 +16562,7 @@
         <v>45835</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16619,7 +16619,7 @@
         <v>45835</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16676,7 +16676,7 @@
         <v>45540.54907407407</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16738,7 +16738,7 @@
         <v>45009</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         <v>45474.62798611111</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>45712.45840277777</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>45251</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16976,7 +16976,7 @@
         <v>45559.61635416667</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17033,7 +17033,7 @@
         <v>45607</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17090,7 +17090,7 @@
         <v>45839.46233796296</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         <v>45839.5271875</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>45839.53807870371</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         <v>45839.54767361111</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17323,7 +17323,7 @@
         <v>45839.57009259259</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17380,7 +17380,7 @@
         <v>45839.54072916666</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17437,7 +17437,7 @@
         <v>45839.54482638889</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17494,7 +17494,7 @@
         <v>44911</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17556,7 +17556,7 @@
         <v>45839.49627314815</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>45671</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>44960</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>44960</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>44960</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>45841.38987268518</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>45910.57907407408</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>45910.60444444444</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18027,7 +18027,7 @@
         <v>45841.28633101852</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>45909.56289351852</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>45079</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>45841.39737268518</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         <v>45565.49755787037</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18317,7 +18317,7 @@
         <v>45020</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>44952.54068287037</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>45509.37478009259</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
         <v>45509.37478009259</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18550,7 +18550,7 @@
         <v>44516</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>45090</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>45912.63537037037</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>45819</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>45205.53640046297</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>45848.62711805556</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>45912</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18949,7 +18949,7 @@
         <v>45848.60824074074</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19011,7 +19011,7 @@
         <v>45912.62055555556</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>45245</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19135,7 +19135,7 @@
         <v>45852.61484953704</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19192,7 +19192,7 @@
         <v>45853.57020833333</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>45915.58412037037</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19311,7 +19311,7 @@
         <v>45856.55130787037</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19368,7 +19368,7 @@
         <v>45856.50510416667</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19425,7 +19425,7 @@
         <v>45856.54179398148</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19482,7 +19482,7 @@
         <v>45856.53145833333</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19539,7 +19539,7 @@
         <v>45856.47466435185</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19596,7 +19596,7 @@
         <v>45856.48679398148</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19653,7 +19653,7 @@
         <v>45715.32680555555</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19715,7 +19715,7 @@
         <v>45659</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19772,7 +19772,7 @@
         <v>45659</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19829,7 +19829,7 @@
         <v>45917.653125</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>45667</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>45789.63767361111</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
         <v>45454</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20067,7 +20067,7 @@
         <v>45918.64709490741</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>45918.62368055555</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20191,7 +20191,7 @@
         <v>45646.41387731482</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>45051</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20305,7 +20305,7 @@
         <v>44733.92600694444</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>45919.66621527778</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>45922.56931712963</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>45924.64480324074</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20543,7 +20543,7 @@
         <v>45661</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20600,7 +20600,7 @@
         <v>45664</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20657,7 +20657,7 @@
         <v>45184</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20714,7 +20714,7 @@
         <v>45635</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20771,7 +20771,7 @@
         <v>45033</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20828,7 +20828,7 @@
         <v>45033.92592592593</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20885,7 +20885,7 @@
         <v>45926.47561342592</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>45870.51164351852</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>45644.37731481482</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>45930.61439814815</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>45873</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>45930.61894675926</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>45930.63690972222</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>45929.50489583334</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>45458.29769675926</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>45873.46689814814</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>45929.52806712963</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>45873.78482638889</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>45873.47204861111</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>45205.5255787037</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>45872.63649305556</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>45692.34487268519</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>45880.47910879629</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>45182.65770833333</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>45197.38826388889</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21988,7 +21988,7 @@
         <v>45701.68518518518</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22045,7 +22045,7 @@
         <v>45646.58731481482</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22102,7 +22102,7 @@
         <v>45040</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22159,7 +22159,7 @@
         <v>45176</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22216,7 +22216,7 @@
         <v>45163</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22278,7 +22278,7 @@
         <v>45933.64456018519</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22335,7 +22335,7 @@
         <v>45176</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>45687</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>45933.34513888889</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22511,7 +22511,7 @@
         <v>45005</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22568,7 +22568,7 @@
         <v>45936.34415509259</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>44377</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>45636.69321759259</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>45938.33891203703</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22796,7 +22796,7 @@
         <v>45937.3825462963</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22858,7 +22858,7 @@
         <v>45938.31708333334</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         <v>45002</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22972,7 +22972,7 @@
         <v>45938.32828703704</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23029,7 +23029,7 @@
         <v>45938.34753472222</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23086,7 +23086,7 @@
         <v>45939.61072916666</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>45537</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>45133</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23272,7 +23272,7 @@
         <v>45939.59528935186</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23334,7 +23334,7 @@
         <v>45111</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23396,7 +23396,7 @@
         <v>45769.5737037037</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23453,7 +23453,7 @@
         <v>45782</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23510,7 +23510,7 @@
         <v>45537.59991898148</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>45659.61873842592</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>45947.34706018519</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>45950.51460648148</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>45070</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45757.45982638889</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23857,7 +23857,7 @@
         <v>45090</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23914,7 +23914,7 @@
         <v>45951.65707175926</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23971,7 +23971,7 @@
         <v>44901</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24028,7 +24028,7 @@
         <v>44895</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24085,7 +24085,7 @@
         <v>45734.5574537037</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24142,7 +24142,7 @@
         <v>45695.45655092593</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24199,7 +24199,7 @@
         <v>44980</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24256,7 +24256,7 @@
         <v>45135</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24318,7 +24318,7 @@
         <v>45957.3458912037</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>45957.62625</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>45617.39003472222</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24494,7 +24494,7 @@
         <v>45617.4600462963</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24556,7 +24556,7 @@
         <v>45124</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24613,7 +24613,7 @@
         <v>45958.60057870371</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24675,7 +24675,7 @@
         <v>45957.38414351852</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>45959.895625</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24794,7 +24794,7 @@
         <v>45959.35769675926</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24851,7 +24851,7 @@
         <v>44953.47570601852</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24908,7 +24908,7 @@
         <v>44571</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24965,7 +24965,7 @@
         <v>45587</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25027,7 +25027,7 @@
         <v>45960.83863425926</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25089,7 +25089,7 @@
         <v>45961.33986111111</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>45965.74070601852</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>45966.30361111111</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25270,7 +25270,7 @@
         <v>45965.31461805556</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25327,7 +25327,7 @@
         <v>44355.66364583333</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25384,7 +25384,7 @@
         <v>45405</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25441,7 +25441,7 @@
         <v>45965.73465277778</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25498,7 +25498,7 @@
         <v>45965.7542824074</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25555,7 +25555,7 @@
         <v>44901</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25612,7 +25612,7 @@
         <v>45968</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25669,7 +25669,7 @@
         <v>45019</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25726,7 +25726,7 @@
         <v>45610.59465277778</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>45572</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>45049</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>45020</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25964,7 +25964,7 @@
         <v>45447</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26021,7 +26021,7 @@
         <v>45617.41984953704</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26078,7 +26078,7 @@
         <v>45480.57652777778</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26135,7 +26135,7 @@
         <v>45141.93166666666</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26197,7 +26197,7 @@
         <v>45281.53866898148</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26254,7 +26254,7 @@
         <v>45468</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26311,7 +26311,7 @@
         <v>45475</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26368,7 +26368,7 @@
         <v>45581.45914351852</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26425,7 +26425,7 @@
         <v>45610.59439814815</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26487,7 +26487,7 @@
         <v>45974.53111111111</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26549,7 +26549,7 @@
         <v>45153</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26606,7 +26606,7 @@
         <v>45149.5874537037</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26668,7 +26668,7 @@
         <v>45630</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26725,7 +26725,7 @@
         <v>45474.66497685185</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26787,7 +26787,7 @@
         <v>45246.59564814815</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26844,7 +26844,7 @@
         <v>45458</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26901,7 +26901,7 @@
         <v>45975.57861111111</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26963,7 +26963,7 @@
         <v>44551.9203125</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27020,7 +27020,7 @@
         <v>45484.65622685185</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27077,7 +27077,7 @@
         <v>45145.55239583334</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27139,7 +27139,7 @@
         <v>45712</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27201,7 +27201,7 @@
         <v>45041</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27258,7 +27258,7 @@
         <v>45302.43986111111</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>45981.57976851852</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27372,7 +27372,7 @@
         <v>45981.45725694444</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27434,7 +27434,7 @@
         <v>45583.3650462963</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27491,7 +27491,7 @@
         <v>45981.51613425926</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>45405</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27610,7 +27610,7 @@
         <v>45005</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         <v>45335</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27724,7 +27724,7 @@
         <v>45082</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27781,7 +27781,7 @@
         <v>45712.44364583334</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27838,7 +27838,7 @@
         <v>45512.92891203704</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>45678</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27957,7 +27957,7 @@
         <v>45177</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28014,7 +28014,7 @@
         <v>45610.34976851852</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28071,7 +28071,7 @@
         <v>45987.40146990741</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28128,7 +28128,7 @@
         <v>45182</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28185,7 +28185,7 @@
         <v>45992.73780092593</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28242,7 +28242,7 @@
         <v>45992.29917824074</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28299,7 +28299,7 @@
         <v>45553</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28356,7 +28356,7 @@
         <v>45701</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         <v>45994.34417824074</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28470,7 +28470,7 @@
         <v>45509.36456018518</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28527,7 +28527,7 @@
         <v>45191.48872685185</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28584,7 +28584,7 @@
         <v>44580</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28641,7 +28641,7 @@
         <v>45995</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28698,7 +28698,7 @@
         <v>45607.55600694445</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28755,7 +28755,7 @@
         <v>45996.59361111111</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28812,7 +28812,7 @@
         <v>45999</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28869,7 +28869,7 @@
         <v>45610.59471064815</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28931,7 +28931,7 @@
         <v>44683.46040509259</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>45674</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>46042.76789351852</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>46000.45891203704</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>45607.63787037037</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>45625.50078703704</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>46042.71438657407</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>45999</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>45601.43474537037</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29459,7 +29459,7 @@
         <v>44805</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29516,7 +29516,7 @@
         <v>46000.5859837963</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29573,7 +29573,7 @@
         <v>45678</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29635,7 +29635,7 @@
         <v>46000.43319444444</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29697,7 +29697,7 @@
         <v>45687</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29754,7 +29754,7 @@
         <v>45695.57164351852</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29811,7 +29811,7 @@
         <v>46000.44934027778</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29873,7 +29873,7 @@
         <v>45708.47898148148</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29930,7 +29930,7 @@
         <v>44588</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29987,7 +29987,7 @@
         <v>46002.37701388889</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30044,7 +30044,7 @@
         <v>44622</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30106,7 +30106,7 @@
         <v>45653</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30163,7 +30163,7 @@
         <v>45664</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30220,7 +30220,7 @@
         <v>45674</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30277,7 +30277,7 @@
         <v>46003.69472222222</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30334,7 +30334,7 @@
         <v>44263.27416666667</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30391,7 +30391,7 @@
         <v>45238.41365740741</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30448,7 +30448,7 @@
         <v>44322.91846064815</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30505,7 +30505,7 @@
         <v>44699</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30562,7 +30562,7 @@
         <v>45659.63700231481</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         <v>45757.60878472222</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30676,7 +30676,7 @@
         <v>46048</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30733,7 +30733,7 @@
         <v>45611</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30790,7 +30790,7 @@
         <v>45670</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30847,7 +30847,7 @@
         <v>44838.92494212963</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30904,7 +30904,7 @@
         <v>45446</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30961,7 +30961,7 @@
         <v>46050.34429398148</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31018,7 +31018,7 @@
         <v>46050.34435185185</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31075,7 +31075,7 @@
         <v>46050.34427083333</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31132,7 +31132,7 @@
         <v>45700</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31189,7 +31189,7 @@
         <v>46049</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31246,7 +31246,7 @@
         <v>46051.70982638889</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31303,7 +31303,7 @@
         <v>45202</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31360,7 +31360,7 @@
         <v>45719.63577546296</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31417,7 +31417,7 @@
         <v>45274</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31474,7 +31474,7 @@
         <v>46058.45982638889</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31536,7 +31536,7 @@
         <v>45708.49795138889</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31593,7 +31593,7 @@
         <v>46059.55626157407</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31650,7 +31650,7 @@
         <v>45756.4359375</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31707,7 +31707,7 @@
         <v>44783</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31764,7 +31764,7 @@
         <v>45463</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31821,7 +31821,7 @@
         <v>45741</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31878,7 +31878,7 @@
         <v>46059.51925925926</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31935,7 +31935,7 @@
         <v>46063.46484953703</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31992,7 +31992,7 @@
         <v>46022</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32049,7 +32049,7 @@
         <v>45301</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32106,7 +32106,7 @@
         <v>46063.7046412037</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32163,7 +32163,7 @@
         <v>46050</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32220,7 +32220,7 @@
         <v>45246</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32277,7 +32277,7 @@
         <v>46066.31010416667</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32334,7 +32334,7 @@
         <v>45442</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32391,7 +32391,7 @@
         <v>45176</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32453,7 +32453,7 @@
         <v>46065.45136574074</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32510,7 +32510,7 @@
         <v>46065.45789351852</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32567,7 +32567,7 @@
         <v>45013</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32624,7 +32624,7 @@
         <v>46065.47174768519</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32681,7 +32681,7 @@
         <v>45352</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32738,7 +32738,7 @@
         <v>45272</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32795,7 +32795,7 @@
         <v>46050.34459490741</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32852,7 +32852,7 @@
         <v>45744</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32909,7 +32909,7 @@
         <v>45537.36497685185</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32971,7 +32971,7 @@
         <v>46027.5158912037</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33028,7 +33028,7 @@
         <v>46050</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33085,7 +33085,7 @@
         <v>44938</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33142,7 +33142,7 @@
         <v>45261</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33199,7 +33199,7 @@
         <v>45468</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33256,7 +33256,7 @@
         <v>45644</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33313,7 +33313,7 @@
         <v>46031.38577546296</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33370,7 +33370,7 @@
         <v>46076.56410879629</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         <v>45510.34210648148</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33489,7 +33489,7 @@
         <v>45622</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33546,7 +33546,7 @@
         <v>45671</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33603,7 +33603,7 @@
         <v>46031</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33660,7 +33660,7 @@
         <v>45671</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33717,7 +33717,7 @@
         <v>44980</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33779,7 +33779,7 @@
         <v>45581.67887731481</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33836,7 +33836,7 @@
         <v>45548</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33893,7 +33893,7 @@
         <v>45695.35236111111</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33950,7 +33950,7 @@
         <v>44516</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34007,7 +34007,7 @@
         <v>45033.92583333333</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34064,7 +34064,7 @@
         <v>45048</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34121,7 +34121,7 @@
         <v>44936</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34178,7 +34178,7 @@
         <v>45432</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34235,7 +34235,7 @@
         <v>44811.93648148148</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34292,7 +34292,7 @@
         <v>44919</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34349,7 +34349,7 @@
         <v>46037.62767361111</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34406,7 +34406,7 @@
         <v>45607.65512731481</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34463,7 +34463,7 @@
         <v>44502.91891203704</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34520,7 +34520,7 @@
         <v>44580</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34577,7 +34577,7 @@
         <v>46080.48056712963</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34634,7 +34634,7 @@
         <v>45013</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34691,7 +34691,7 @@
         <v>45254</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34753,7 +34753,7 @@
         <v>44467</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34810,7 +34810,7 @@
         <v>45580.47027777778</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34872,7 +34872,7 @@
         <v>45620.4262962963</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34929,7 +34929,7 @@
         <v>45470.66340277778</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34986,7 +34986,7 @@
         <v>45029</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35043,7 +35043,7 @@
         <v>45271</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35100,7 +35100,7 @@
         <v>44952</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35157,7 +35157,7 @@
         <v>44725</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35219,7 +35219,7 @@
         <v>44734.58537037037</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35276,7 +35276,7 @@
         <v>44980.68075231482</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35338,7 +35338,7 @@
         <v>45076</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35395,7 +35395,7 @@
         <v>45129.5255787037</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35452,7 +35452,7 @@
         <v>45278</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35514,7 +35514,7 @@
         <v>45594.53015046296</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35571,7 +35571,7 @@
         <v>45160.4729050926</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35633,7 +35633,7 @@
         <v>45580</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35690,7 +35690,7 @@
         <v>45744.47206018519</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35747,7 +35747,7 @@
         <v>45611.38657407407</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35804,7 +35804,7 @@
         <v>44475</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35861,7 +35861,7 @@
         <v>45090</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35918,7 +35918,7 @@
         <v>44904.57989583333</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35975,7 +35975,7 @@
         <v>45253.59967592593</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36037,7 +36037,7 @@
         <v>45708.60898148148</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36094,7 +36094,7 @@
         <v>45530.50326388889</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36151,7 +36151,7 @@
         <v>45530.50581018518</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36208,7 +36208,7 @@
         <v>45307</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36265,7 +36265,7 @@
         <v>45728.64752314815</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36322,7 +36322,7 @@
         <v>45197.47825231482</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36384,7 +36384,7 @@
         <v>44823</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36441,7 +36441,7 @@
         <v>45661</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36498,7 +36498,7 @@
         <v>45664</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36555,7 +36555,7 @@
         <v>45659</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36612,7 +36612,7 @@
         <v>45226</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36669,7 +36669,7 @@
         <v>45233</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36731,7 +36731,7 @@
         <v>45646.42921296296</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36788,7 +36788,7 @@
         <v>45719.53226851852</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36845,7 +36845,7 @@
         <v>45251.38590277778</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36907,7 +36907,7 @@
         <v>45148.37356481481</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36969,7 +36969,7 @@
         <v>45199.72377314815</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         <v>45525.53164351852</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37083,7 +37083,7 @@
         <v>45580.79371527778</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37140,7 +37140,7 @@
         <v>45162</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37197,7 +37197,7 @@
         <v>45365.3278125</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37254,7 +37254,7 @@
         <v>45365</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37311,7 +37311,7 @@
         <v>45610.59431712963</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37373,7 +37373,7 @@
         <v>44980</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37430,7 +37430,7 @@
         <v>45215.78850694445</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37487,7 +37487,7 @@
         <v>45687.60042824074</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37544,7 +37544,7 @@
         <v>45614.52643518519</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37601,7 +37601,7 @@
         <v>45699.67743055556</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37658,7 +37658,7 @@
         <v>45545.40222222222</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37715,7 +37715,7 @@
         <v>45670</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37772,7 +37772,7 @@
         <v>45670</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37829,7 +37829,7 @@
         <v>45635.61375</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37886,7 +37886,7 @@
         <v>45628</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37943,7 +37943,7 @@
         <v>45646.40557870371</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38000,7 +38000,7 @@
         <v>45251</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38057,7 +38057,7 @@
         <v>45646.43638888889</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38114,7 +38114,7 @@
         <v>45415</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38171,7 +38171,7 @@
         <v>45644.32280092593</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38228,7 +38228,7 @@
         <v>45628</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38285,7 +38285,7 @@
         <v>45160</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38342,7 +38342,7 @@
         <v>45161</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38399,7 +38399,7 @@
         <v>45246</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38456,7 +38456,7 @@
         <v>45246</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38513,7 +38513,7 @@
         <v>45779.34300925926</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38570,7 +38570,7 @@
         <v>45779.33128472222</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38627,7 +38627,7 @@
         <v>45784</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38684,7 +38684,7 @@
         <v>45572.35177083333</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38741,7 +38741,7 @@
         <v>45642.71113425926</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38798,7 +38798,7 @@
         <v>45495.58291666667</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38860,7 +38860,7 @@
         <v>45789.6372337963</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38917,7 +38917,7 @@
         <v>45792.67769675926</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38974,7 +38974,7 @@
         <v>45792.63686342593</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39031,7 +39031,7 @@
         <v>45792.69844907407</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39088,7 +39088,7 @@
         <v>45792.65528935185</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39145,7 +39145,7 @@
         <v>45789.49042824074</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39202,7 +39202,7 @@
         <v>45188</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         <v>45791.54234953703</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39321,7 +39321,7 @@
         <v>45794</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39378,7 +39378,7 @@
         <v>45796.40104166666</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39435,7 +39435,7 @@
         <v>45796.38870370371</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39492,7 +39492,7 @@
         <v>45798</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39549,7 +39549,7 @@
         <v>45761.6440625</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39606,7 +39606,7 @@
         <v>45800.60171296296</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39663,7 +39663,7 @@
         <v>45800.59549768519</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39720,7 +39720,7 @@
         <v>45800.4647337963</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39777,7 +39777,7 @@
         <v>45800.63518518519</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39834,7 +39834,7 @@
         <v>45803.47896990741</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39891,7 +39891,7 @@
         <v>45803.47759259259</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
